--- a/sriramModel-nelson-melancholic-patientID_33-sims-gr-5-iterations-p_stress.xlsx
+++ b/sriramModel-nelson-melancholic-patientID_33-sims-gr-5-iterations-p_stress.xlsx
@@ -394,19 +394,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.00332047158129</v>
+        <v>2.030630129649531</v>
       </c>
       <c r="C2">
-        <v>2.012112030858809</v>
+        <v>2.036418565216021</v>
       </c>
       <c r="D2">
-        <v>2.009807919818472</v>
+        <v>2.02002729844762</v>
       </c>
       <c r="E2">
-        <v>2.009048659929459</v>
+        <v>2.015149859594049</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>2.022084424556041</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -414,19 +414,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.006706406531884</v>
+        <v>2.061526860561926</v>
       </c>
       <c r="C3">
-        <v>2.024363361134685</v>
+        <v>2.0729747805513</v>
       </c>
       <c r="D3">
-        <v>2.019834430331291</v>
+        <v>2.040136690826376</v>
       </c>
       <c r="E3">
-        <v>2.018262532762789</v>
+        <v>2.030530652365021</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>2.044320822528239</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -434,19 +434,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.010159418882884</v>
+        <v>2.092665400436733</v>
       </c>
       <c r="C4">
-        <v>2.036749696613606</v>
+        <v>2.109647583597854</v>
       </c>
       <c r="D4">
-        <v>2.030078617139842</v>
+        <v>2.06032661426759</v>
       </c>
       <c r="E4">
-        <v>2.027638427626724</v>
+        <v>2.0461302254542</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>2.066696919507208</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -454,19 +454,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.013681215359437</v>
+        <v>2.124022654584436</v>
       </c>
       <c r="C5">
-        <v>2.049266959302919</v>
+        <v>2.146417373026454</v>
       </c>
       <c r="D5">
-        <v>2.040540168631826</v>
+        <v>2.080595643004897</v>
       </c>
       <c r="E5">
-        <v>2.037173583423729</v>
+        <v>2.061937605811269</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>2.089201283733594</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -474,19 +474,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.017273599143088</v>
+        <v>2.155577152617103</v>
       </c>
       <c r="C6">
-        <v>2.061911284835202</v>
+        <v>2.183265992969035</v>
       </c>
       <c r="D6">
-        <v>2.051219372043771</v>
+        <v>2.100942505001383</v>
       </c>
       <c r="E6">
-        <v>2.046865664293388</v>
+        <v>2.077942962234191</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>2.111823296418538</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -494,19 +494,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.020938473949414</v>
+        <v>2.187308990891959</v>
       </c>
       <c r="C7">
-        <v>2.074679020372753</v>
+        <v>2.220176626147532</v>
       </c>
       <c r="D7">
-        <v>2.062117111386315</v>
+        <v>2.121366071687178</v>
       </c>
       <c r="E7">
-        <v>2.056712756268534</v>
+        <v>2.094137651636343</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>2.134553057077073</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -514,19 +514,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.024677848445043</v>
+        <v>2.219199773727482</v>
       </c>
       <c r="C8">
-        <v>2.087566723029854</v>
+        <v>2.257133763469136</v>
       </c>
       <c r="D8">
-        <v>2.073234867277768</v>
+        <v>2.141865339866091</v>
       </c>
       <c r="E8">
-        <v>2.066713365168149</v>
+        <v>2.110514175306787</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>2.157381455315695</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -534,19 +534,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.028493841029454</v>
+        <v>2.251232560978832</v>
       </c>
       <c r="C9">
-        <v>2.100571158856348</v>
+        <v>2.294123161205811</v>
       </c>
       <c r="D9">
-        <v>2.084574718723594</v>
+        <v>2.16243944477198</v>
       </c>
       <c r="E9">
-        <v>2.076866415776813</v>
+        <v>2.127066191420678</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>2.180300155244952</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -554,19 +554,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.032388685010035</v>
+        <v>2.283391817741757</v>
       </c>
       <c r="C10">
-        <v>2.113689302383468</v>
+        <v>2.331131806277626</v>
       </c>
       <c r="D10">
-        <v>2.096139346889379</v>
+        <v>2.183087658780319</v>
       </c>
       <c r="E10">
-        <v>2.087171252371958</v>
+        <v>2.14378852924412</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>2.203301553158872</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -574,19 +574,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.036364734201239</v>
+        <v>2.315663365705853</v>
       </c>
       <c r="C11">
-        <v>2.126918336770359</v>
+        <v>2.368147868453661</v>
       </c>
       <c r="D11">
-        <v>2.107932040919586</v>
+        <v>2.20380938093693</v>
       </c>
       <c r="E11">
-        <v>2.097627640665121</v>
+        <v>2.160677207796455</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>2.226378763951144</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -594,19 +594,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.040424468981583</v>
+        <v>2.348034338276537</v>
       </c>
       <c r="C12">
-        <v>2.140255654591998</v>
+        <v>2.40516071412326</v>
       </c>
       <c r="D12">
-        <v>2.119956705857983</v>
+        <v>2.224604131779512</v>
       </c>
       <c r="E12">
-        <v>2.108235771232778</v>
+        <v>2.177729462362573</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>2.249525624746484</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -614,19 +614,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.044570502845781</v>
+        <v>2.38049313856401</v>
       </c>
       <c r="C13">
-        <v>2.153698859292855</v>
+        <v>2.442160829542225</v>
       </c>
       <c r="D13">
-        <v>2.132217872730448</v>
+        <v>2.245471551988735</v>
       </c>
       <c r="E13">
-        <v>2.118996264523105</v>
+        <v>2.194943778155565</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>2.27273669164805</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -634,19 +634,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.048805589492727</v>
+        <v>2.413029399376994</v>
       </c>
       <c r="C14">
-        <v>2.167245767352326</v>
+        <v>2.47913981691431</v>
       </c>
       <c r="D14">
-        <v>2.144720710855212</v>
+        <v>2.266411401206495</v>
       </c>
       <c r="E14">
-        <v>2.129910177538141</v>
+        <v>2.212319933511467</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>2.296007238517686</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -654,19 +654,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.053132630494274</v>
+        <v>2.445633945952241</v>
       </c>
       <c r="C15">
-        <v>2.180894411203394</v>
+        <v>2.516090347197637</v>
       </c>
       <c r="D15">
-        <v>2.157471042447185</v>
+        <v>2.28742355583886</v>
       </c>
       <c r="E15">
-        <v>2.14097901229959</v>
+        <v>2.22985905457673</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>2.319333254039617</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -674,19 +674,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.057554683594159</v>
+        <v>2.478298761419627</v>
       </c>
       <c r="C16">
-        <v>2.19464304295451</v>
+        <v>2.553006137717131</v>
       </c>
       <c r="D16">
-        <v>2.170475359587013</v>
+        <v>2.30850800856806</v>
       </c>
       <c r="E16">
-        <v>2.152204726223554</v>
+        <v>2.24756367970124</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>2.342711445048388</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -694,19 +694,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.062074971691334</v>
+        <v>2.51101695460372</v>
       </c>
       <c r="C17">
-        <v>2.208490138969328</v>
+        <v>2.589881951360493</v>
       </c>
       <c r="D17">
-        <v>2.183740843623789</v>
+        <v>2.329664865908696</v>
       </c>
       <c r="E17">
-        <v>2.16358974454571</v>
+        <v>2.265437838409923</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>2.366139238779291</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -714,19 +714,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.066696892567545</v>
+        <v>2.543782730264164</v>
       </c>
       <c r="C18">
-        <v>2.222434405365386</v>
+        <v>2.626713575487001</v>
       </c>
       <c r="D18">
-        <v>2.197275387080731</v>
+        <v>2.350894347417621</v>
       </c>
       <c r="E18">
-        <v>2.175136974953116</v>
+        <v>2.283487145594223</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>2.389614790188117</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -734,19 +734,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.071424029425055</v>
+        <v>2.576591361615461</v>
       </c>
       <c r="C19">
-        <v>2.23647478450024</v>
+        <v>2.66349781344091</v>
       </c>
       <c r="D19">
-        <v>2.211087618128051</v>
+        <v>2.372196785994194</v>
       </c>
       <c r="E19">
-        <v>2.186849824599835</v>
+        <v>2.301718912071379</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>2.413136993780181</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -754,19 +754,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.076260162307155</v>
+        <v>2.609439165077557</v>
       </c>
       <c r="C20">
-        <v>2.250610462521621</v>
+        <v>2.700232467653617</v>
       </c>
       <c r="D20">
-        <v>2.22518692767998</v>
+        <v>2.393572625975429</v>
       </c>
       <c r="E20">
-        <v>2.198732219705404</v>
+        <v>2.320142275132059</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>2.436705494486209</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -774,19 +774,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.081209280481664</v>
+        <v>2.642323477518032</v>
       </c>
       <c r="C21">
-        <v>2.264840878067959</v>
+        <v>2.736916332194881</v>
       </c>
       <c r="D21">
-        <v>2.239583499162859</v>
+        <v>2.415022425019993</v>
       </c>
       <c r="E21">
-        <v>2.210788627959347</v>
+        <v>2.338768351890604</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>2.460320699568904</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -794,19 +794,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.086275595875956</v>
+        <v>2.675242635000729</v>
       </c>
       <c r="C22">
-        <v>2.279165732214441</v>
+        <v>2.77354918891336</v>
       </c>
       <c r="D22">
-        <v>2.25428834098236</v>
+        <v>2.436546854465421</v>
       </c>
       <c r="E22">
-        <v>2.223024083978759</v>
+        <v>2.357610419099966</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>2.483983804144216</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -814,19 +814,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.091463557661113</v>
+        <v>2.708195953425538</v>
       </c>
       <c r="C23">
-        <v>2.293584999775801</v>
+        <v>2.810131804944357</v>
       </c>
       <c r="D23">
-        <v>2.269313321697571</v>
+        <v>2.458146702882762</v>
       </c>
       <c r="E23">
-        <v>2.235444218096966</v>
+        <v>2.376684123819963</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>2.507696813229509</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -834,19 +834,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.096777868093609</v>
+        <v>2.74118371171722</v>
       </c>
       <c r="C24">
-        <v>2.308098942086418</v>
+        <v>2.846665942259557</v>
       </c>
       <c r="D24">
-        <v>2.284671207876193</v>
+        <v>2.47982287594727</v>
       </c>
       <c r="E24">
-        <v>2.248055288796977</v>
+        <v>2.39600773019275</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>2.531462558940706</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -854,19 +854,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.102223499733761</v>
+        <v>2.774207136611477</v>
       </c>
       <c r="C25">
-        <v>2.322708121397055</v>
+        <v>2.883154363388993</v>
       </c>
       <c r="D25">
-        <v>2.30037570456582</v>
+        <v>2.501576401849766</v>
       </c>
       <c r="E25">
-        <v>2.260864219130843</v>
+        <v>2.415602408611217</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>2.555284733981802</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -874,19 +874,19 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>2.107805714173328</v>
+        <v>2.80726838885479</v>
       </c>
       <c r="C26">
-        <v>2.337413417044949</v>
+        <v>2.919600842971742</v>
       </c>
       <c r="D26">
-        <v>2.316441498262503</v>
+        <v>2.523408434530239</v>
       </c>
       <c r="E26">
-        <v>2.273878637510251</v>
+        <v>2.435492581603958</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>2.579167931333572</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -894,19 +894,19 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>2.113530082418608</v>
+        <v>2.840370550447307</v>
       </c>
       <c r="C27">
-        <v>2.352216043575022</v>
+        <v>2.956010182760055</v>
       </c>
       <c r="D27">
-        <v>2.332884302189521</v>
+        <v>2.545320257054363</v>
       </c>
       <c r="E27">
-        <v>2.287106923297128</v>
+        <v>2.455706306487242</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>2.603117684168226</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -914,19 +914,19 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>2.119402507091135</v>
+        <v>2.873517613303261</v>
       </c>
       <c r="C28">
-        <v>2.367117571014194</v>
+        <v>2.992388233316101</v>
       </c>
       <c r="D28">
-        <v>2.349720903615039</v>
+        <v>2.567313290476345</v>
       </c>
       <c r="E28">
-        <v>2.300558257663096</v>
+        <v>2.476275755257404</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>2.627140487322276</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -934,19 +934,19 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>2.125429246625461</v>
+        <v>2.906714468730935</v>
       </c>
       <c r="C29">
-        <v>2.382119947528759</v>
+        <v>3.028741919055937</v>
       </c>
       <c r="D29">
-        <v>2.366969212828494</v>
+        <v>2.589389098119072</v>
       </c>
       <c r="E29">
-        <v>2.314242680237072</v>
+        <v>2.497237761539482</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>2.651243866463547</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -954,19 +954,19 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>2.131616941662941</v>
+        <v>2.939966897816434</v>
       </c>
       <c r="C30">
-        <v>2.397225524727089</v>
+        <v>3.065079268323792</v>
       </c>
       <c r="D30">
-        <v>2.38464831326511</v>
+        <v>2.611549395069581</v>
       </c>
       <c r="E30">
-        <v>2.328171152111565</v>
+        <v>2.518634467598018</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>2.675436430025237</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -974,19 +974,19 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>2.137972643861666</v>
+        <v>2.97328156212353</v>
       </c>
       <c r="C31">
-        <v>2.412437085907619</v>
+        <v>3.101409449004299</v>
       </c>
       <c r="D31">
-        <v>2.402778512104502</v>
+        <v>2.633796059052182</v>
       </c>
       <c r="E31">
-        <v>2.342355625834033</v>
+        <v>2.540514086006015</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>2.699727934999908</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -994,19 +994,19 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>2.144503847366473</v>
+        <v>3.006665994171423</v>
       </c>
       <c r="C32">
-        <v>2.427757877595852</v>
+        <v>3.137742813793917</v>
       </c>
       <c r="D32">
-        <v>2.421381390473639</v>
+        <v>2.656131137914242</v>
       </c>
       <c r="E32">
-        <v>2.356809123051725</v>
+        <v>2.5629317955756</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>2.724129311273408</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1014,19 +1014,19 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>2.151218523209338</v>
+        <v>3.040128587501686</v>
       </c>
       <c r="C33">
-        <v>2.443191644761336</v>
+        <v>3.174090947810488</v>
       </c>
       <c r="D33">
-        <v>2.440479852147042</v>
+        <v>2.678556866858723</v>
       </c>
       <c r="E33">
-        <v>2.371545820535653</v>
+        <v>2.585950793471386</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>2.748652783502833</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1034,19 +1034,19 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>2.158125156938647</v>
+        <v>3.073678585815309</v>
       </c>
       <c r="C34">
-        <v>2.458742670174252</v>
+        <v>3.210466723577365</v>
       </c>
       <c r="D34">
-        <v>2.460098169357228</v>
+        <v>2.701075682176564</v>
       </c>
       <c r="E34">
-        <v>2.386581145361067</v>
+        <v>2.609643412100749</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>2.77331193538613</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1054,19 +1054,19 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>2.165232789807837</v>
+        <v>3.107326070609291</v>
       </c>
       <c r="C35">
-        <v>2.474415818417909</v>
+        <v>3.246884363749805</v>
       </c>
       <c r="D35">
-        <v>2.480262023994939</v>
+        <v>2.723690234644423</v>
       </c>
       <c r="E35">
-        <v>2.401931880038076</v>
+        <v>2.634092836420389</v>
       </c>
       <c r="F35">
-        <v>0</v>
+        <v>2.798121799361252</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1074,19 +1074,19 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>2.172551063888098</v>
+        <v>3.141081946665201</v>
       </c>
       <c r="C36">
-        <v>2.490216585163287</v>
+        <v>3.283359515978174</v>
       </c>
       <c r="D36">
-        <v>2.500998542097616</v>
+        <v>2.746403415704906</v>
       </c>
       <c r="E36">
-        <v>2.417616278416122</v>
+        <v>2.659394613903154</v>
       </c>
       <c r="F36">
-        <v>0</v>
+        <v>2.82309890470592</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1094,19 +1094,19 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>2.180090271507187</v>
+        <v>3.174957924455158</v>
       </c>
       <c r="C37">
-        <v>2.5061511523966</v>
+        <v>3.319909332625942</v>
       </c>
       <c r="D37">
-        <v>2.522336319080719</v>
+        <v>2.769218372972267</v>
       </c>
       <c r="E37">
-        <v>2.433654193180475</v>
+        <v>2.685658438042706</v>
       </c>
       <c r="F37">
-        <v>0</v>
+        <v>2.848261447787375</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1114,19 +1114,19 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>2.187861409456603</v>
+        <v>3.208966499521142</v>
       </c>
       <c r="C38">
-        <v>2.522226450420759</v>
+        <v>3.356552559299501</v>
       </c>
       <c r="D38">
-        <v>2.544305432673362</v>
+        <v>2.792138538059835</v>
       </c>
       <c r="E38">
-        <v>2.450067215701727</v>
+        <v>2.713010200014021</v>
       </c>
       <c r="F38">
-        <v>0</v>
+        <v>2.873629378881351</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1134,19 +1134,19 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>2.195876238452387</v>
+        <v>3.243120926446041</v>
       </c>
       <c r="C39">
-        <v>2.538450227617569</v>
+        <v>3.393309635761007</v>
       </c>
       <c r="D39">
-        <v>2.566937439978618</v>
+        <v>2.815167658787157</v>
       </c>
       <c r="E39">
-        <v>2.466878828897824</v>
+        <v>2.741594413610219</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <v>2.899224496623162</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1154,19 +1154,19 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>2.204147348379061</v>
+        <v>3.277435187470586</v>
       </c>
       <c r="C40">
-        <v>2.554831128903466</v>
+        <v>3.430202812303807</v>
       </c>
       <c r="D40">
-        <v>2.590265354483025</v>
+        <v>2.838309821350584</v>
       </c>
       <c r="E40">
-        <v>2.484114573586099</v>
+        <v>2.771576483466973</v>
       </c>
       <c r="F40">
-        <v>0</v>
+        <v>2.925070526595564</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1174,19 +1174,19 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>2.212688229894623</v>
+        <v>3.31192395434053</v>
       </c>
       <c r="C41">
-        <v>2.571378784370058</v>
+        <v>3.46725627262257</v>
       </c>
       <c r="D41">
-        <v>2.614323598260005</v>
+        <v>2.861569496961198</v>
       </c>
       <c r="E41">
-        <v>2.501802228519878</v>
+        <v>2.803144625759024</v>
       </c>
       <c r="F41">
-        <v>0</v>
+        <v>2.951193379090214</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1194,19 +1194,19 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>2.221513353019828</v>
+        <v>3.346602542185147</v>
       </c>
       <c r="C42">
-        <v>2.588103909465298</v>
+        <v>3.504496268638383</v>
       </c>
       <c r="D42">
-        <v>2.639147923997765</v>
+        <v>2.884951579368164</v>
       </c>
       <c r="E42">
-        <v>2.519972003828429</v>
+        <v>2.836511198797708</v>
       </c>
       <c r="F42">
-        <v>0</v>
+        <v>2.977621215795993</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1214,19 +1214,19 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>2.23063825338074</v>
+        <v>3.381486854101821</v>
       </c>
       <c r="C43">
-        <v>2.605018418517097</v>
+        <v>3.54195127282194</v>
       </c>
       <c r="D43">
-        <v>2.664775300977583</v>
+        <v>2.908461422617779</v>
       </c>
       <c r="E43">
-        <v>2.538656746952026</v>
+        <v>2.871912718765611</v>
       </c>
       <c r="F43">
-        <v>0</v>
+        <v>3.00438455554512</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1234,19 +1234,19 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>2.240079626817044</v>
+        <v>3.416593315066792</v>
       </c>
       <c r="C44">
-        <v>2.622135553639708</v>
+        <v>3.579652148705273</v>
       </c>
       <c r="D44">
-        <v>2.691243758701522</v>
+        <v>2.932104908473608</v>
       </c>
       <c r="E44">
-        <v>2.557892159237027</v>
+        <v>2.909607646603342</v>
       </c>
       <c r="F44">
-        <v>0</v>
+        <v>3.031516404740966</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1254,19 +1254,19 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>2.249855433101314</v>
+        <v>3.451938793523053</v>
       </c>
       <c r="C45">
-        <v>2.639470031448571</v>
+        <v>3.61763233097018</v>
       </c>
       <c r="D45">
-        <v>2.718592181669992</v>
+        <v>2.955888488688376</v>
       </c>
       <c r="E45">
-        <v>2.577717020045793</v>
+        <v>2.949869592058762</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <v>3.059052384450192</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1274,19 +1274,19 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>2.25998500953665</v>
+        <v>3.48754051020418</v>
       </c>
       <c r="C46">
-        <v>2.657038210416508</v>
+        <v>3.65592801802884</v>
       </c>
       <c r="D46">
-        <v>2.746860048923903</v>
+        <v>2.979819257350765</v>
       </c>
       <c r="E46">
-        <v>2.598173413507529</v>
+        <v>2.992975690106922</v>
       </c>
       <c r="F46">
-        <v>0</v>
+        <v>3.087030832546153</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1294,19 +1294,19 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>2.270489195203217</v>
+        <v>3.523415931833011</v>
       </c>
       <c r="C47">
-        <v>2.674858282223619</v>
+        <v>3.69457838751273</v>
       </c>
       <c r="D47">
-        <v>2.776087112455561</v>
+        <v>3.003905031073153</v>
       </c>
       <c r="E47">
-        <v>2.619306950699406</v>
+        <v>3.039188063040277</v>
       </c>
       <c r="F47">
-        <v>0</v>
+        <v>3.115492867562704</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1314,19 +1314,19 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>2.281390466597242</v>
+        <v>3.559582647783972</v>
       </c>
       <c r="C48">
-        <v>2.692950491046314</v>
+        <v>3.733625827117294</v>
       </c>
       <c r="D48">
-        <v>2.806313009730399</v>
+        <v>3.028154407936376</v>
       </c>
       <c r="E48">
-        <v>2.641166976914329</v>
+        <v>3.088727527217477</v>
       </c>
       <c r="F48">
-        <v>0</v>
+        <v>3.144482417684167</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1334,19 +1334,19 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>2.292713085337123</v>
+        <v>3.596058230955192</v>
       </c>
       <c r="C49">
-        <v>2.711337385429183</v>
+        <v>3.773116172374533</v>
       </c>
       <c r="D49">
-        <v>2.837576807274399</v>
+        <v>3.052576883350768</v>
       </c>
       <c r="E49">
-        <v>2.663806749816076</v>
+        <v>3.141742481639817</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>3.174046185259569</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1354,19 +1354,19 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>2.304483258486555</v>
+        <v>3.632860080605373</v>
       </c>
       <c r="C50">
-        <v>2.730044108235612</v>
+        <v>3.81309895205878</v>
       </c>
       <c r="D50">
-        <v>2.869916474913333</v>
+        <v>3.07718294238846</v>
       </c>
       <c r="E50">
-        <v>2.687283569335849</v>
+        <v>3.198278025725644</v>
       </c>
       <c r="F50">
-        <v>0</v>
+        <v>3.20423353183208</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1374,19 +1374,19 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>2.316729311831488</v>
+        <v>3.670005247462237</v>
       </c>
       <c r="C51">
-        <v>2.749098731173624</v>
+        <v>3.853627649866548</v>
       </c>
       <c r="D51">
-        <v>2.903368293670212</v>
+        <v>3.101984147259857</v>
       </c>
       <c r="E51">
-        <v>2.711658834091145</v>
+        <v>3.258253899292539</v>
       </c>
       <c r="F51">
-        <v>0</v>
+        <v>3.235096255376782</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1394,19 +1394,19 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>2.329481876127811</v>
+        <v>3.707510240809734</v>
       </c>
       <c r="C52">
-        <v>2.768532641290829</v>
+        <v>3.894759959690289</v>
       </c>
       <c r="D52">
-        <v>2.937966204621888</v>
+        <v>3.126993308312581</v>
       </c>
       <c r="E52">
-        <v>2.73699799217325</v>
+        <v>3.321459888244216</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>3.266688278652421</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1414,19 +1414,19 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>2.342774088057086</v>
+        <v>3.74539099075466</v>
       </c>
       <c r="C53">
-        <v>2.78838104489314</v>
+        <v>3.936558228109862</v>
       </c>
       <c r="D53">
-        <v>2.973741158013117</v>
+        <v>3.152224705171022</v>
       </c>
       <c r="E53">
-        <v>2.76337039045112</v>
+        <v>3.387573719693847</v>
       </c>
       <c r="F53">
-        <v>0</v>
+        <v>3.299065191498098</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1434,19 +1434,19 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>2.356641824005037</v>
+        <v>3.78366438272047</v>
       </c>
       <c r="C54">
-        <v>2.808684097041057</v>
+        <v>3.979091569677348</v>
       </c>
       <c r="D54">
-        <v>3.010720892865117</v>
+        <v>3.177695273006801</v>
       </c>
       <c r="E54">
-        <v>2.790849366462609</v>
+        <v>3.456196907786637</v>
       </c>
       <c r="F54">
-        <v>0</v>
+        <v>3.332284723855778</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1454,19 +1454,19 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>2.371123941676522</v>
+        <v>3.82234959914575</v>
       </c>
       <c r="C55">
-        <v>2.829488077781806</v>
+        <v>4.022437899795329</v>
       </c>
       <c r="D55">
-        <v>3.048929675469917</v>
+        <v>3.203425728507916</v>
       </c>
       <c r="E55">
-        <v>2.819512079849938</v>
+        <v>3.526899247654732</v>
       </c>
       <c r="F55">
-        <v>0</v>
+        <v>3.366407357979274</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1474,19 +1474,19 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>2.386262505165797</v>
+        <v>3.861467672121179</v>
       </c>
       <c r="C56">
-        <v>2.850846092091543</v>
+        <v>4.066684072746422</v>
       </c>
       <c r="D56">
-        <v>3.08838757141579</v>
+        <v>3.229440653770218</v>
       </c>
       <c r="E56">
-        <v>2.849438593906682</v>
+        <v>3.599258956835398</v>
       </c>
       <c r="F56">
-        <v>0</v>
+        <v>3.401494845905499</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1494,19 +1494,19 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>2.402103008972025</v>
+        <v>3.901040843113861</v>
       </c>
       <c r="C57">
-        <v>2.872818840615467</v>
+        <v>4.111925626944082</v>
       </c>
       <c r="D57">
-        <v>3.129109720108564</v>
+        <v>3.25576850034034</v>
       </c>
       <c r="E57">
-        <v>2.880710552056663</v>
+        <v>3.672891719256163</v>
       </c>
       <c r="F57">
-        <v>0</v>
+        <v>3.437608575505002</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1514,19 +1514,19 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>2.418694595865574</v>
+        <v>3.941091904279214</v>
       </c>
       <c r="C58">
-        <v>2.895475536090217</v>
+        <v>4.15826647197893</v>
       </c>
       <c r="D58">
-        <v>3.171105691799788</v>
+        <v>3.282441631473399</v>
       </c>
       <c r="E58">
-        <v>2.913409442732895</v>
+        <v>3.747466574814823</v>
       </c>
       <c r="F58">
-        <v>0</v>
+        <v>3.474807580213823</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1534,19 +1534,19 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>2.436090258376139</v>
+        <v>3.98164354962751</v>
       </c>
       <c r="C59">
-        <v>2.918894983166617</v>
+        <v>4.205818375646487</v>
       </c>
       <c r="D59">
-        <v>3.21437895928661</v>
+        <v>3.309496391198471</v>
       </c>
       <c r="E59">
-        <v>2.947614423463159</v>
+        <v>3.822710962353504</v>
       </c>
       <c r="F59">
-        <v>0</v>
+        <v>3.513146257970248</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1554,19 +1554,19 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>2.454347009977075</v>
+        <v>4.022717723166566</v>
       </c>
       <c r="C60">
-        <v>2.943166837846522</v>
+        <v>4.254700178372468</v>
       </c>
       <c r="D60">
-        <v>3.258926513505712</v>
+        <v>3.336973203754997</v>
       </c>
       <c r="E60">
-        <v>2.983399712941784</v>
+        <v>3.898407531069775</v>
       </c>
       <c r="F60">
-        <v>0</v>
+        <v>3.552672027806685</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1574,19 +1574,19 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>2.473526007468561</v>
+        <v>4.064334987254394</v>
       </c>
       <c r="C61">
-        <v>2.968393057558011</v>
+        <v>4.305036649467284</v>
       </c>
       <c r="D61">
-        <v>3.304738646265257</v>
+        <v>3.364916698758587</v>
       </c>
       <c r="E61">
-        <v>3.020831615729225</v>
+        <v>3.974387523251901</v>
       </c>
       <c r="F61">
-        <v>0</v>
+        <v>3.593422716243262</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1594,19 +1594,19 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>2.493692600582464</v>
+        <v>4.106513879497023</v>
       </c>
       <c r="C62">
-        <v>2.994689541475406</v>
+        <v>4.356956886759046</v>
       </c>
       <c r="D62">
-        <v>3.351798914613624</v>
+        <v>3.393375854203208</v>
       </c>
       <c r="E62">
-        <v>3.059965315704368</v>
+        <v>4.050522501049863</v>
       </c>
       <c r="F62">
-        <v>0</v>
+        <v>3.635424044284889</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1614,19 +1614,19 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>2.514916278511356</v>
+        <v>4.149270335824504</v>
       </c>
       <c r="C63">
-        <v>3.022187939000837</v>
+        <v>4.410592154668254</v>
       </c>
       <c r="D63">
-        <v>3.400084290567671</v>
+        <v>3.422404175439192</v>
       </c>
       <c r="E63">
-        <v>3.100841653131476</v>
+        <v>4.126716280535276</v>
       </c>
       <c r="F63">
-        <v>0</v>
+        <v>3.67868751372242</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1634,19 +1634,19 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>2.5372704761698</v>
+        <v>4.192617154207967</v>
       </c>
       <c r="C64">
-        <v>3.051037566302937</v>
+        <v>4.466073058785734</v>
       </c>
       <c r="D64">
-        <v>3.449565488199247</v>
+        <v>3.452059851087327</v>
       </c>
       <c r="E64">
-        <v>3.143484170760575</v>
+        <v>4.202897774989563</v>
       </c>
       <c r="F64">
-        <v>0</v>
+        <v>3.723208697650448</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1654,19 +1654,19 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>2.560832196086563</v>
+        <v>4.236563509417411</v>
       </c>
       <c r="C65">
-        <v>3.081407307775309</v>
+        <v>4.523525993400754</v>
       </c>
       <c r="D65">
-        <v>3.500207448757854</v>
+        <v>3.482405896960853</v>
       </c>
       <c r="E65">
-        <v>3.187896755860135</v>
+        <v>4.279014960529181</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>3.768966180311857</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1674,19 +1674,19 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>2.585681395896761</v>
+        <v>4.281114557173675</v>
       </c>
       <c r="C66">
-        <v>3.113487279781446</v>
+        <v>4.58306887967038</v>
       </c>
       <c r="D66">
-        <v>3.551969954959186</v>
+        <v>3.513510248929998</v>
       </c>
       <c r="E66">
-        <v>3.234062196352635</v>
+        <v>4.355030034058742</v>
       </c>
       <c r="F66">
-        <v>0</v>
+        <v>3.815921400340447</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1694,19 +1694,19 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>2.611900087997851</v>
+        <v>4.326271124898392</v>
       </c>
       <c r="C67">
-        <v>3.147489885058785</v>
+        <v>4.644806114399224</v>
       </c>
       <c r="D67">
-        <v>3.604808338965908</v>
+        <v>3.545445760843745</v>
       </c>
       <c r="E67">
-        <v>3.281941897149358</v>
+        <v>4.430915462903378</v>
       </c>
       <c r="F67">
-        <v>0</v>
+        <v>3.864019357396814</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1714,19 +1714,19 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>2.639571099246498</v>
+        <v>4.372029507355864</v>
       </c>
       <c r="C68">
-        <v>3.183649677528543</v>
+        <v>4.708823210029196</v>
       </c>
       <c r="D68">
-        <v>3.658674245686048</v>
+        <v>3.578290068432448</v>
       </c>
       <c r="E68">
-        <v>3.331476870493216</v>
+        <v>4.506650968028596</v>
       </c>
       <c r="F68">
-        <v>0</v>
+        <v>3.913190201827955</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1734,19 +1734,19 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>2.668776447396044</v>
+        <v>4.418381373628987</v>
       </c>
       <c r="C69">
-        <v>3.222221192824414</v>
+        <v>4.775181234345553</v>
       </c>
       <c r="D69">
-        <v>3.713516414025265</v>
+        <v>3.61212520729794</v>
       </c>
       <c r="E69">
-        <v>3.382589944420798</v>
+        <v>4.582221141635506</v>
       </c>
       <c r="F69">
-        <v>0</v>
+        <v>3.963351520329125</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1754,19 +1754,19 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>2.699595310404639</v>
+        <v>4.465313789000834</v>
       </c>
       <c r="C70">
-        <v>3.263473619181426</v>
+        <v>4.843911607903281</v>
       </c>
       <c r="D70">
-        <v>3.769281443258705</v>
+        <v>3.647036897791237</v>
       </c>
       <c r="E70">
-        <v>3.435188964627399</v>
+        <v>4.657613628019019</v>
       </c>
       <c r="F70">
-        <v>0</v>
+        <v>4.014411135465354</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -1774,19 +1774,19 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>2.732101597522337</v>
+        <v>4.512809349018654</v>
       </c>
       <c r="C71">
-        <v>3.307680995644553</v>
+        <v>4.915011851520803</v>
       </c>
       <c r="D71">
-        <v>3.825914518798993</v>
+        <v>3.683113408024741</v>
       </c>
       <c r="E71">
-        <v>3.489170637834025</v>
+        <v>4.732817749160317</v>
       </c>
       <c r="F71">
-        <v>0</v>
+        <v>4.066270118590131</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -1794,19 +1794,19 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>2.766361178417946</v>
+        <v>4.560846418505514</v>
       </c>
       <c r="C72">
-        <v>3.355106743652623</v>
+        <v>4.988442852688728</v>
       </c>
       <c r="D72">
-        <v>3.883360080002567</v>
+        <v>3.72044388047801</v>
       </c>
       <c r="E72">
-        <v>3.544424608085003</v>
+        <v>4.807823493201544</v>
       </c>
       <c r="F72">
-        <v>0</v>
+        <v>4.118825786394096</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -1814,19 +1814,19 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>2.802428886772404</v>
+        <v>4.609399462982279</v>
       </c>
       <c r="C73">
-        <v>3.405982076568715</v>
+        <v>5.064128193633683</v>
       </c>
       <c r="D73">
-        <v>3.941562420813955</v>
+        <v>3.759116065516571</v>
       </c>
       <c r="E73">
-        <v>3.600837378344412</v>
+        <v>4.882620807822715</v>
       </c>
       <c r="F73">
-        <v>0</v>
+        <v>4.171974442821524</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -1834,19 +1834,19 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>2.840345481428272</v>
+        <v>4.6584394557532</v>
       </c>
       <c r="C74">
-        <v>3.460479475091348</v>
+        <v>5.141955741836154</v>
       </c>
       <c r="D74">
-        <v>4.000466220713082</v>
+        <v>3.799213171424212</v>
       </c>
       <c r="E74">
-        <v>3.658295772923609</v>
+        <v>4.957199139776813</v>
       </c>
       <c r="F74">
-        <v>0</v>
+        <v>4.225613735932639</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -1854,19 +1854,19 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>2.880134809739528</v>
+        <v>4.707934341580844</v>
       </c>
       <c r="C75">
-        <v>3.518684906577815</v>
+        <v>5.221781486210126</v>
       </c>
       <c r="D75">
-        <v>4.06001700780499</v>
+        <v>3.840810016914082</v>
       </c>
       <c r="E75">
-        <v>3.716689752475201</v>
+        <v>5.031547176890286</v>
       </c>
       <c r="F75">
-        <v>0</v>
+        <v>4.279644548656195</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -1874,19 +1874,19 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>2.92180145827557</v>
+        <v>4.75784953557647</v>
       </c>
       <c r="C76">
-        <v>3.580574997999346</v>
+        <v>5.303435237004773</v>
       </c>
       <c r="D76">
-        <v>4.120161557852298</v>
+        <v>3.883968861353241</v>
       </c>
       <c r="E76">
-        <v>3.775914511281167</v>
+        <v>5.105652748531208</v>
       </c>
       <c r="F76">
-        <v>0</v>
+        <v>4.333972394580943</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -1894,19 +1894,19 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>2.96532917866806</v>
+        <v>4.808148438272487</v>
       </c>
       <c r="C77">
-        <v>3.646006348205927</v>
+        <v>5.386727557642692</v>
       </c>
       <c r="D77">
-        <v>4.180848233122778</v>
+        <v>3.92873471045001</v>
       </c>
       <c r="E77">
-        <v>3.835871882838244</v>
+        <v>5.179502845658024</v>
       </c>
       <c r="F77">
-        <v>0</v>
+        <v>4.388508364895957</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -1914,19 +1914,19 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>3.010680329093836</v>
+        <v>4.858792947666783</v>
       </c>
       <c r="C78">
-        <v>3.71472205884488</v>
+        <v>5.471457170543655</v>
       </c>
       <c r="D78">
-        <v>4.242027264023903</v>
+        <v>3.975130764806523</v>
       </c>
       <c r="E78">
-        <v>3.896471142924988</v>
+        <v>5.253083724419825</v>
       </c>
       <c r="F78">
-        <v>0</v>
+        <v>4.443169679857058</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -1934,19 +1934,19 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>3.057796473535442</v>
+        <v>4.909743951599082</v>
       </c>
       <c r="C79">
-        <v>3.786375454669496</v>
+        <v>5.557418119568287</v>
       </c>
       <c r="D79">
-        <v>4.303650975553377</v>
+        <v>4.023154690356622</v>
       </c>
       <c r="E79">
-        <v>3.95762932932713</v>
+        <v>5.326381063200916</v>
       </c>
       <c r="F79">
-        <v>0</v>
+        <v>4.497879921825118</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -1954,19 +1954,19 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>3.106600145017825</v>
+        <v>4.960961788639562</v>
       </c>
       <c r="C80">
-        <v>3.86056522857491</v>
+        <v>5.64440610922153</v>
       </c>
       <c r="D80">
-        <v>4.365673960231064</v>
+        <v>4.072776292637978</v>
       </c>
       <c r="E80">
-        <v>4.019271201340048</v>
+        <v>5.399380147743347</v>
       </c>
       <c r="F80">
-        <v>0</v>
+        <v>4.552569024967165</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -1974,19 +1974,19 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>3.156997631944158</v>
+        <v>5.012406667574302</v>
       </c>
       <c r="C81">
-        <v>3.936873067725973</v>
+        <v>5.732223624341116</v>
       </c>
       <c r="D81">
-        <v>4.428053199576101</v>
+        <v>4.123937127182481</v>
       </c>
       <c r="E81">
-        <v>4.081328949799</v>
+        <v>5.472066064259747</v>
       </c>
       <c r="F81">
-        <v>0</v>
+        <v>4.607173090349423</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -1994,19 +1994,19 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>3.20888252055856</v>
+        <v>5.064039039746521</v>
       </c>
       <c r="C82">
-        <v>4.014895650670335</v>
+        <v>5.820683728529793</v>
       </c>
       <c r="D82">
-        <v>4.490748137171545</v>
+        <v>4.17655219149855</v>
       </c>
       <c r="E82">
-        <v>4.143741748526935</v>
+        <v>5.544423886378713</v>
       </c>
       <c r="F82">
-        <v>0</v>
+        <v>4.661634085083917</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2014,19 +2014,19 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>3.262139648658845</v>
+        <v>5.11581992146599</v>
       </c>
       <c r="C83">
-        <v>4.094266533782617</v>
+        <v>5.909612574804896</v>
       </c>
       <c r="D83">
-        <v>4.55372070755732</v>
+        <v>4.230513832686808</v>
       </c>
       <c r="E83">
-        <v>4.20645521693563</v>
+        <v>5.616438847378557</v>
       </c>
       <c r="F83">
-        <v>0</v>
+        <v>4.71589947179297</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2034,19 +2034,19 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>3.316649109392601</v>
+        <v>5.16771116574543</v>
       </c>
       <c r="C84">
-        <v>4.174667420962061</v>
+        <v>5.998850767781029</v>
       </c>
       <c r="D84">
-        <v>4.61693532626094</v>
+        <v>4.285697214782538</v>
       </c>
       <c r="E84">
-        <v>4.269420844494771</v>
+        <v>5.688096491528633</v>
       </c>
       <c r="F84">
-        <v>0</v>
+        <v>4.76992180382723</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2054,19 +2054,19 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>3.372289985611533</v>
+        <v>5.219675685533291</v>
       </c>
       <c r="C85">
-        <v>4.255830902431283</v>
+        <v>6.088253821586956</v>
       </c>
       <c r="D85">
-        <v>4.680358846983443</v>
+        <v>4.341966576618521</v>
       </c>
       <c r="E85">
-        <v>4.332595412219378</v>
+        <v>5.759382802694594</v>
       </c>
       <c r="F85">
-        <v>0</v>
+        <v>4.823658311599508</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2074,19 +2074,19 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>3.428943577433987</v>
+        <v>5.271677617627909</v>
       </c>
       <c r="C86">
-        <v>4.337537624297781</v>
+        <v>6.177691838557601</v>
       </c>
       <c r="D86">
-        <v>4.743960492045106</v>
+        <v>4.399181615740022</v>
       </c>
       <c r="E86">
-        <v>4.395940433969949</v>
+        <v>5.83028430537394</v>
       </c>
       <c r="F86">
-        <v>0</v>
+        <v>4.877070432995238</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2094,19 +2094,19 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>3.486495984501772</v>
+        <v>5.32368251506517</v>
       </c>
       <c r="C87">
-        <v>4.419610559906439</v>
+        <v>6.267049304804731</v>
       </c>
       <c r="D87">
-        <v>4.807711760978566</v>
+        <v>4.457203209599321</v>
       </c>
       <c r="E87">
-        <v>4.459421629359503</v>
+        <v>5.900788158612019</v>
       </c>
       <c r="F87">
-        <v>0</v>
+        <v>4.930123704534265</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2114,19 +2114,19 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>3.544840000293348</v>
+        <v>5.375657330530705</v>
       </c>
       <c r="C88">
-        <v>4.5019082987161</v>
+        <v>6.356223207419299</v>
       </c>
       <c r="D88">
-        <v>4.871586325551747</v>
+        <v>4.515897792275185</v>
       </c>
       <c r="E88">
-        <v>4.523008441105303</v>
+        <v>5.970882191033346</v>
       </c>
       <c r="F88">
-        <v>0</v>
+        <v>4.982786931462433</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2134,19 +2134,19 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>3.603876350848715</v>
+        <v>5.427570568689649</v>
       </c>
       <c r="C89">
-        <v>4.584318500477559</v>
+        <v>6.445122699846751</v>
       </c>
       <c r="D89">
-        <v>4.935559916784619</v>
+        <v>4.575140841798095</v>
       </c>
       <c r="E89">
-        <v>4.58667360139524</v>
+        <v>6.04055497076788</v>
       </c>
       <c r="F89">
-        <v>0</v>
+        <v>5.035032212595438</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2154,19 +2154,19 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>3.663514359322012</v>
+        <v>5.479392316006374</v>
       </c>
       <c r="C90">
-        <v>4.666752078865425</v>
+        <v>6.533667661367425</v>
       </c>
       <c r="D90">
-        <v>4.999610205930918</v>
+        <v>4.634818693624047</v>
       </c>
       <c r="E90">
-        <v>4.650392743146456</v>
+        <v>6.109795828725634</v>
       </c>
       <c r="F90">
-        <v>0</v>
+        <v>5.086834525637336</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2174,19 +2174,19 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>3.723672143856168</v>
+        <v>5.531094259512336</v>
       </c>
       <c r="C91">
-        <v>4.749138312550429</v>
+        <v>6.621787576803573</v>
       </c>
       <c r="D91">
-        <v>5.063716682887335</v>
+        <v>4.694829520882306</v>
       </c>
       <c r="E91">
-        <v>4.714144054474435</v>
+        <v>6.17859487744572</v>
       </c>
       <c r="F91">
-        <v>0</v>
+        <v>5.138171466288829</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2194,19 +2194,19 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>3.784276461622837</v>
+        <v>5.582649671102324</v>
       </c>
       <c r="C92">
-        <v>4.831420877315712</v>
+        <v>6.709420477406294</v>
       </c>
       <c r="D92">
-        <v>5.127860534919106</v>
+        <v>4.755083338183258</v>
       </c>
       <c r="E92">
-        <v>4.777907973815985</v>
+        <v>6.246943017083666</v>
       </c>
       <c r="F92">
-        <v>0</v>
+        <v>5.189023054973072</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2214,19 +2214,19 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>3.845262303954972</v>
+        <v>5.634033398986596</v>
       </c>
       <c r="C93">
-        <v>4.913554697766769</v>
+        <v>6.79651187822704</v>
       </c>
       <c r="D93">
-        <v>5.192024527874236</v>
+        <v>4.815501451078427</v>
       </c>
       <c r="E93">
-        <v>4.841666922389874</v>
+        <v>6.314831932756245</v>
       </c>
       <c r="F93">
-        <v>0</v>
+        <v>5.239371453050845</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2234,19 +2234,19 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>3.906572332206178</v>
+        <v>5.68522184184283</v>
       </c>
       <c r="C94">
-        <v>4.995503485332971</v>
+        <v>6.883013960073095</v>
       </c>
       <c r="D94">
-        <v>5.256192891458309</v>
+        <v>4.876015605132855</v>
       </c>
       <c r="E94">
-        <v>4.905405070358428</v>
+        <v>6.382254083284319</v>
       </c>
       <c r="F94">
-        <v>0</v>
+        <v>5.289200785548739</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2254,19 +2254,19 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>3.968156225889777</v>
+        <v>5.736192901723203</v>
       </c>
       <c r="C95">
-        <v>5.077237830123946</v>
+        <v>6.968884807390562</v>
       </c>
       <c r="D95">
-        <v>5.320351209650011</v>
+        <v>4.936566873929157</v>
       </c>
       <c r="E95">
-        <v>4.969108133009739</v>
+        <v>6.449202683915324</v>
       </c>
       <c r="F95">
-        <v>0</v>
+        <v>5.33849699296338</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2274,19 +2274,19 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>4.029969996928324</v>
+        <v>5.786925939107415</v>
       </c>
       <c r="C96">
-        <v>5.158733729435164</v>
+        <v>7.05408767113035</v>
       </c>
       <c r="D96">
-        <v>5.384486316945051</v>
+        <v>4.997104486245422</v>
       </c>
       <c r="E96">
-        <v>5.032763193416007</v>
+        <v>6.515671685817958</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>5.387247671020008</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2294,19 +2294,19 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>4.091975308187235</v>
+        <v>5.837401725781704</v>
       </c>
       <c r="C97">
-        <v>5.23997145539393</v>
+        <v>7.138590280852831</v>
       </c>
       <c r="D97">
-        <v>5.448586200810138</v>
+        <v>5.057584762602468</v>
       </c>
       <c r="E97">
-        <v>5.096358548264878</v>
+        <v>6.581655751495271</v>
       </c>
       <c r="F97">
-        <v>0</v>
+        <v>5.435441882946107</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2314,19 +2314,19 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>4.154138821694659</v>
+        <v>5.887602386287578</v>
       </c>
       <c r="C98">
-        <v>5.320934683551006</v>
+        <v>7.222364364108727</v>
       </c>
       <c r="D98">
-        <v>5.512639910495754</v>
+        <v>5.117970134085899</v>
       </c>
       <c r="E98">
-        <v>5.159883573855876</v>
+        <v>6.647150228142536</v>
       </c>
       <c r="F98">
-        <v>0</v>
+        <v>5.483070084618177</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2334,19 +2334,19 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>4.216431591933204</v>
+        <v>5.937511341915882</v>
       </c>
       <c r="C99">
-        <v>5.401609821134752</v>
+        <v>7.305385203840457</v>
       </c>
       <c r="D99">
-        <v>5.576637472183437</v>
+        <v>5.178228235128623</v>
       </c>
       <c r="E99">
-        <v>5.223328609569203</v>
+        <v>6.712151118710834</v>
       </c>
       <c r="F99">
-        <v>0</v>
+        <v>5.53012400862009</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2354,19 +2354,19 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>4.278828512291726</v>
+        <v>5.987113253218111</v>
       </c>
       <c r="C100">
-        <v>5.481985487640399</v>
+        <v>7.387631209278667</v>
       </c>
       <c r="D100">
-        <v>5.640569810318826</v>
+        <v>5.238331071997248</v>
       </c>
       <c r="E100">
-        <v>5.286684856426482</v>
+        <v>6.776655052256979</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>5.576596546099521</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2374,19 +2374,19 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>4.341307817589976</v>
+        <v>6.036393961276687</v>
       </c>
       <c r="C101">
-        <v>5.56205211154045</v>
+        <v>7.469083588203533</v>
       </c>
       <c r="D101">
-        <v>5.704428674895337</v>
+        <v>5.298254262856472</v>
       </c>
       <c r="E101">
-        <v>5.349944288659486</v>
+        <v>6.840659255248707</v>
       </c>
       <c r="F101">
-        <v>0</v>
+        <v>5.622481663976578</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2394,19 +2394,19 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>4.403850642121776</v>
+        <v>6.085340430826188</v>
       </c>
       <c r="C102">
-        <v>5.641801615544368</v>
+        <v>7.549726026343161</v>
       </c>
       <c r="D102">
-        <v>5.76820657439686</v>
+        <v>5.357976545811862</v>
       </c>
       <c r="E102">
-        <v>5.41309957647582</v>
+        <v>6.904161519405443</v>
       </c>
       <c r="F102">
-        <v>0</v>
+        <v>5.667774324043666</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2414,19 +2414,19 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>4.466440630491446</v>
+        <v>6.133940690757122</v>
       </c>
       <c r="C103">
-        <v>5.721227169529437</v>
+        <v>7.629544433357339</v>
       </c>
       <c r="D103">
-        <v>5.831896714073846</v>
+        <v>5.417479359510587</v>
       </c>
       <c r="E103">
-        <v>5.476144018455421</v>
+        <v>6.967160171940607</v>
       </c>
       <c r="F103">
-        <v>0</v>
+        <v>5.712470408568208</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2434,19 +2434,19 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>4.529063597275082</v>
+        <v>6.182183781768574</v>
       </c>
       <c r="C104">
-        <v>5.800322995271459</v>
+        <v>7.708526717011257</v>
       </c>
       <c r="D104">
-        <v>5.895492939210609</v>
+        <v>5.476746355835038</v>
       </c>
       <c r="E104">
-        <v>5.53907148223149</v>
+        <v>7.029654046335475</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>5.756566643536148</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2454,19 +2454,19 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>4.591707230942463</v>
+        <v>6.230059702257638</v>
       </c>
       <c r="C105">
-        <v>5.879084210984025</v>
+        <v>7.786662566162956</v>
       </c>
       <c r="D105">
-        <v>5.95898968303663</v>
+        <v>5.535763008552619</v>
       </c>
       <c r="E105">
-        <v>5.601876352301132</v>
+        <v>7.091642453506308</v>
       </c>
       <c r="F105">
-        <v>0</v>
+        <v>5.800060535623577</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2474,19 +2474,19 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>4.65436083731185</v>
+        <v>6.277559357105801</v>
       </c>
       <c r="C106">
-        <v>5.957506706555817</v>
+        <v>7.863943301333838</v>
       </c>
       <c r="D106">
-        <v>6.02238191893953</v>
+        <v>5.594516351147871</v>
       </c>
       <c r="E106">
-        <v>5.664553483974146</v>
+        <v>7.153125153213066</v>
       </c>
       <c r="F106">
-        <v>0</v>
+        <v>5.842950322942368</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -2494,19 +2494,19 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>4.717015117922403</v>
+        <v>6.324674507463254</v>
       </c>
       <c r="C107">
-        <v>6.035587042562874</v>
+        <v>7.940361727616857</v>
       </c>
       <c r="D107">
-        <v>6.08566511665059</v>
+        <v>5.652994771193041</v>
       </c>
       <c r="E107">
-        <v>5.727098162616008</v>
+        <v>7.214102326352446</v>
       </c>
       <c r="F107">
-        <v>0</v>
+        <v>5.885234926124264</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -2514,19 +2514,19 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>4.779661978991046</v>
+        <v>6.371397722818032</v>
       </c>
       <c r="C108">
-        <v>6.113322367781358</v>
+        <v>8.015911970862808</v>
       </c>
       <c r="D108">
-        <v>6.148835202083529</v>
+        <v>5.711187812766895</v>
       </c>
       <c r="E108">
-        <v>5.789506067462757</v>
+        <v>7.274574548513598</v>
       </c>
       <c r="F108">
-        <v>0</v>
+        <v>5.926913892665861</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -2534,19 +2534,19 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>4.84229436698326</v>
+        <v>6.417722335462462</v>
       </c>
       <c r="C109">
-        <v>6.190710351170948</v>
+        <v>8.090589353025711</v>
       </c>
       <c r="D109">
-        <v>6.21188852052991</v>
+        <v>5.769086011272522</v>
       </c>
       <c r="E109">
-        <v>5.851773239391601</v>
+        <v>7.33454276510242</v>
       </c>
       <c r="F109">
-        <v>0</v>
+        <v>5.967987350052346</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -2554,19 +2554,19 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>4.904906127231145</v>
+        <v>6.463642397080909</v>
       </c>
       <c r="C110">
-        <v>6.26774912524178</v>
+        <v>8.164390299779289</v>
       </c>
       <c r="D110">
-        <v>6.274821802930794</v>
+        <v>5.826680728087292</v>
       </c>
       <c r="E110">
-        <v>5.913896052121063</v>
+        <v>7.394008265662103</v>
       </c>
       <c r="F110">
-        <v>0</v>
+        <v>6.008455964400446</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -2574,19 +2574,19 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>4.967491882432075</v>
+        <v>6.509152637450698</v>
       </c>
       <c r="C111">
-        <v>6.344437238421514</v>
+        <v>8.237312253529728</v>
       </c>
       <c r="D111">
-        <v>6.33763213496477</v>
+        <v>5.88396410695816</v>
       </c>
       <c r="E111">
-        <v>5.975871186391597</v>
+        <v>7.452972663128167</v>
       </c>
       <c r="F111">
-        <v>0</v>
+        <v>6.048320902606063</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -2594,19 +2594,19 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>5.03004692825289</v>
+        <v>6.554248425419605</v>
       </c>
       <c r="C112">
-        <v>6.420773614600749</v>
+        <v>8.309353587207495</v>
       </c>
       <c r="D112">
-        <v>6.40031692871138</v>
+        <v>5.940928796467885</v>
       </c>
       <c r="E112">
-        <v>6.037695606742852</v>
+        <v>7.511437863979421</v>
       </c>
       <c r="F112">
-        <v>0</v>
+        <v>6.087583797319257</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -2614,19 +2614,19 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>5.092567143619417</v>
+        <v>6.598925733893624</v>
       </c>
       <c r="C113">
-        <v>6.496757518430725</v>
+        <v>8.380513525902023</v>
       </c>
       <c r="D113">
-        <v>6.462873896668051</v>
+        <v>5.997568101989299</v>
       </c>
       <c r="E113">
-        <v>6.099366540559154</v>
+        <v>7.569406055360548</v>
       </c>
       <c r="F113">
-        <v>0</v>
+        <v>6.126246713197519</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -2634,19 +2634,19 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>5.155048913598551</v>
+        <v>6.643181095000803</v>
       </c>
       <c r="C114">
-        <v>6.572388525260479</v>
+        <v>8.450792077242498</v>
       </c>
       <c r="D114">
-        <v>6.525301027916854</v>
+        <v>6.053875837933996</v>
       </c>
       <c r="E114">
-        <v>6.1608814591028</v>
+        <v>7.626879681969709</v>
       </c>
       <c r="F114">
-        <v>0</v>
+        <v>6.164312116666695</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -2654,19 +2654,19 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>5.217489063065224</v>
+        <v>6.687011577453452</v>
       </c>
       <c r="C115">
-        <v>6.647666494857078</v>
+        <v>8.52018995626614</v>
       </c>
       <c r="D115">
-        <v>6.587596566254336</v>
+        <v>6.109846248795926</v>
       </c>
       <c r="E115">
-        <v>6.222238060289981</v>
+        <v>7.683861427276936</v>
       </c>
       <c r="F115">
-        <v>0</v>
+        <v>6.201782842864041</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -2674,19 +2674,19 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>5.279884799604602</v>
+        <v>6.730414743822502</v>
       </c>
       <c r="C116">
-        <v>6.722591548228018</v>
+        <v>8.588708554366452</v>
       </c>
       <c r="D116">
-        <v>6.649758990113812</v>
+        <v>6.165474024644212</v>
       </c>
       <c r="E116">
-        <v>6.283434253009983</v>
+        <v>7.740354193949609</v>
       </c>
       <c r="F116">
-        <v>0</v>
+        <v>6.238662070157594</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -2694,19 +2694,19 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>5.342233664319461</v>
+        <v>6.773388631858671</v>
       </c>
       <c r="C117">
-        <v>6.797164047009629</v>
+        <v>8.656349827314948</v>
       </c>
       <c r="D117">
-        <v>6.711786994125371</v>
+        <v>6.220754157996417</v>
       </c>
       <c r="E117">
-        <v>6.344468142801294</v>
+        <v>7.796361086639746</v>
       </c>
       <c r="F117">
-        <v>0</v>
+        <v>6.274953294276505</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -2714,19 +2714,19 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>5.40453348940635</v>
+        <v>6.815931719267952</v>
       </c>
       <c r="C118">
-        <v>6.871384574997367</v>
+        <v>8.723116345572151</v>
       </c>
       <c r="D118">
-        <v>6.773679472165826</v>
+        <v>6.275682012848042</v>
       </c>
       <c r="E118">
-        <v>6.405338018734646</v>
+        <v>7.851885395672339</v>
       </c>
       <c r="F118">
-        <v>0</v>
+        <v>6.31066028445506</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -2734,19 +2734,19 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>5.466782361527992</v>
+        <v>6.858042897105235</v>
       </c>
       <c r="C119">
-        <v>6.945253921480073</v>
+        <v>8.789011130852199</v>
       </c>
       <c r="D119">
-        <v>6.835435501782305</v>
+        <v>6.330253214058891</v>
       </c>
       <c r="E119">
-        <v>6.466042341368912</v>
+        <v>7.906930581993621</v>
       </c>
       <c r="F119">
-        <v>0</v>
+        <v>6.345787098375899</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -2754,19 +2754,19 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>5.528978590153057</v>
+        <v>6.899721443862405</v>
       </c>
       <c r="C120">
-        <v>7.018773066106612</v>
+        <v>8.854037751392543</v>
       </c>
       <c r="D120">
-        <v>6.897054329857168</v>
+        <v>6.384463669786927</v>
       </c>
       <c r="E120">
-        <v>6.526579731664955</v>
+        <v>7.961500259766745</v>
       </c>
       <c r="F120">
-        <v>0</v>
+        <v>6.380338037234028</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -2774,19 +2774,19 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>5.59112068015522</v>
+        <v>6.940967001585252</v>
       </c>
       <c r="C121">
-        <v>7.091943165068872</v>
+        <v>8.918200162782455</v>
       </c>
       <c r="D121">
-        <v>6.958535359416315</v>
+        <v>6.438309541371096</v>
       </c>
       <c r="E121">
-        <v>6.586948960756917</v>
+        <v>8.015598188525912</v>
       </c>
       <c r="F121">
-        <v>0</v>
+        <v>6.414317635171734</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -2794,19 +2794,19 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>5.653207308067826</v>
+        <v>6.981779550373647</v>
       </c>
       <c r="C122">
-        <v>7.164765538410152</v>
+        <v>8.981502772545658</v>
       </c>
       <c r="D122">
-        <v>7.019878137480331</v>
+        <v>6.491787223638649</v>
       </c>
       <c r="E122">
-        <v>6.647148940493803</v>
+        <v>8.069228252524082</v>
       </c>
       <c r="F122">
-        <v>0</v>
+        <v>6.44773063112744</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -2814,19 +2814,19 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>5.71523730147837</v>
+        <v>7.022159390063742</v>
       </c>
       <c r="C123">
-        <v>7.237241658340315</v>
+        <v>9.043950336379858</v>
       </c>
       <c r="D123">
-        <v>7.081082343870911</v>
+        <v>6.544893338754373</v>
       </c>
       <c r="E123">
-        <v>6.707178714675169</v>
+        <v>8.12239445635932</v>
       </c>
       <c r="F123">
-        <v>0</v>
+        <v>6.480581954254826</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -2834,19 +2834,19 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>5.777209621122946</v>
+        <v>7.062107118229025</v>
       </c>
       <c r="C124">
-        <v>7.309373138419044</v>
+        <v>9.105547971233086</v>
       </c>
       <c r="D124">
-        <v>7.142147780891587</v>
+        <v>6.597624721895174</v>
       </c>
       <c r="E124">
-        <v>6.767037450914161</v>
+        <v>8.17510090823283</v>
       </c>
       <c r="F124">
-        <v>0</v>
+        <v>6.512876706118817</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -2854,19 +2854,19 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>5.839123345306263</v>
+        <v>7.10162360952592</v>
       </c>
       <c r="C125">
-        <v>7.381161723506036</v>
+        <v>9.166301099281311</v>
       </c>
       <c r="D125">
-        <v>7.203074363809772</v>
+        <v>6.649978402286077</v>
       </c>
       <c r="E125">
-        <v>6.826724433069277</v>
+        <v>8.227351810707471</v>
       </c>
       <c r="F125">
-        <v>0</v>
+        <v>6.544620145025823</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -2874,19 +2874,19 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>5.900977656320497</v>
+        <v>7.140709998900227</v>
       </c>
       <c r="C126">
-        <v>7.452609280410102</v>
+        <v>9.226215440024342</v>
       </c>
       <c r="D126">
-        <v>7.263862112073361</v>
+        <v>6.701951599802078</v>
       </c>
       <c r="E126">
-        <v>6.886239054193289</v>
+        <v>8.279151451210943</v>
       </c>
       <c r="F126">
-        <v>0</v>
+        <v>6.575817668193586</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -2894,19 +2894,19 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>5.962771828592487</v>
+        <v>7.179367663125247</v>
       </c>
       <c r="C127">
-        <v>7.523717789157939</v>
+        <v>9.285296969172309</v>
       </c>
       <c r="D127">
-        <v>7.324511141201278</v>
+        <v>6.753541707126923</v>
       </c>
       <c r="E127">
-        <v>6.945580809953692</v>
+        <v>8.330504189866655</v>
       </c>
       <c r="F127">
-        <v>0</v>
+        <v>6.606474806292844</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -2914,19 +2914,19 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6.024505218334153</v>
+        <v>7.217598203459648</v>
       </c>
       <c r="C128">
-        <v>7.594489334828156</v>
+        <v>9.343551918535244</v>
       </c>
       <c r="D128">
-        <v>7.385021655292588</v>
+        <v>6.804746286840396</v>
       </c>
       <c r="E128">
-        <v>7.004749292485162</v>
+        <v>8.381414453590754</v>
       </c>
       <c r="F128">
-        <v>0</v>
+        <v>6.63659719402146</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -2934,19 +2934,19 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6.086177254470137</v>
+        <v>7.255403431075948</v>
       </c>
       <c r="C129">
-        <v>7.66492609989865</v>
+        <v>9.400986730264174</v>
       </c>
       <c r="D129">
-        <v>7.445393940104037</v>
+        <v>6.85556305660755</v>
       </c>
       <c r="E129">
-        <v>7.063744184634649</v>
+        <v>8.431886725620192</v>
       </c>
       <c r="F129">
-        <v>0</v>
+        <v>6.666190581510593</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -2954,19 +2954,19 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6.14778743069159</v>
+        <v>7.292785352334604</v>
       </c>
       <c r="C130">
-        <v>7.735030357065352</v>
+        <v>9.457608066396633</v>
       </c>
       <c r="D130">
-        <v>7.505628356649876</v>
+        <v>6.905989891328064</v>
       </c>
       <c r="E130">
-        <v>7.122565254570041</v>
+        <v>8.481925538176062</v>
       </c>
       <c r="F130">
-        <v>0</v>
+        <v>6.695260795868569</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -2974,19 +2974,19 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6.209335298477865</v>
+        <v>7.329746153676378</v>
       </c>
       <c r="C131">
-        <v>7.804804462493937</v>
+        <v>9.51342276232168</v>
       </c>
       <c r="D131">
-        <v>7.565725335282194</v>
+        <v>6.956024808764583</v>
       </c>
       <c r="E131">
-        <v>7.181212350729576</v>
+        <v>8.531535466477884</v>
       </c>
       <c r="F131">
-        <v>0</v>
+        <v>6.723813756242712</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -2994,19 +2994,19 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6.270820460960191</v>
+        <v>7.366288189316936</v>
       </c>
       <c r="C132">
-        <v>7.874250849472888</v>
+        <v>9.568437832004015</v>
       </c>
       <c r="D132">
-        <v>7.625685370213479</v>
+        <v>7.005665971279807</v>
       </c>
       <c r="E132">
-        <v>7.239685397071331</v>
+        <v>8.580721119250068</v>
       </c>
       <c r="F132">
-        <v>0</v>
+        <v>6.751855440932562</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3014,19 +3014,19 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6.332242567518485</v>
+        <v>7.402413968754592</v>
       </c>
       <c r="C133">
-        <v>7.943372022438335</v>
+        <v>9.622660434929184</v>
       </c>
       <c r="D133">
-        <v>7.685509014446471</v>
+        <v>7.054911675901196</v>
       </c>
       <c r="E133">
-        <v>7.297984388613651</v>
+        <v>8.629487135128446</v>
       </c>
       <c r="F133">
-        <v>0</v>
+        <v>6.779391894270999</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3034,19 +3034,19 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6.39360130901464</v>
+        <v>7.438126145970142</v>
       </c>
       <c r="C134">
-        <v>8.012170551345198</v>
+        <v>9.676097873050432</v>
       </c>
       <c r="D134">
-        <v>7.745196875079364</v>
+        <v>7.103760350991326</v>
       </c>
       <c r="E134">
-        <v>7.356109387239185</v>
+        <v>8.677838174692287</v>
       </c>
       <c r="F134">
-        <v>0</v>
+        <v>6.806429204193916</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3054,19 +3054,19 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6.454896413582802</v>
+        <v>7.473427505096457</v>
       </c>
       <c r="C135">
-        <v>8.080649066361895</v>
+        <v>9.728757565955847</v>
       </c>
       <c r="D135">
-        <v>7.8047496089571</v>
+        <v>7.152210551373037</v>
       </c>
       <c r="E135">
-        <v>7.414060517744852</v>
+        <v>8.725778915418315</v>
       </c>
       <c r="F135">
-        <v>0</v>
+        <v>6.832973502957121</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3074,19 +3074,19 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6.516127642903902</v>
+        <v>7.508320951402632</v>
       </c>
       <c r="C136">
-        <v>8.148810252867531</v>
+        <v>9.780647046853973</v>
       </c>
       <c r="D136">
-        <v>7.864167918642035</v>
+        <v>7.200260952502223</v>
       </c>
       <c r="E136">
-        <v>7.47183796412131</v>
+        <v>8.773314047354191</v>
       </c>
       <c r="F136">
-        <v>0</v>
+        <v>6.859030949762126</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3094,19 +3094,19 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6.577294788905398</v>
+        <v>7.542809505405716</v>
       </c>
       <c r="C137">
-        <v>8.216656846733446</v>
+        <v>9.831773940371937</v>
       </c>
       <c r="D137">
-        <v>7.923452548679435</v>
+        <v>7.247910348332266</v>
       </c>
       <c r="E137">
-        <v>7.529441966045422</v>
+        <v>8.820448266350086</v>
       </c>
       <c r="F137">
-        <v>0</v>
+        <v>6.884607733993855</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3114,19 +3114,19 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6.63839767083155</v>
+        <v>7.576896277077779</v>
       </c>
       <c r="C138">
-        <v>8.284191629871779</v>
+        <v>9.882145960462891</v>
       </c>
       <c r="D138">
-        <v>7.982604282135302</v>
+        <v>7.295157644771626</v>
       </c>
       <c r="E138">
-        <v>7.586872815572033</v>
+        <v>8.867186271821414</v>
       </c>
       <c r="F138">
-        <v>0</v>
+        <v>6.909710055064544</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3134,19 +3134,19 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6.699436132640033</v>
+        <v>7.610584488593293</v>
       </c>
       <c r="C139">
-        <v>8.351417426035406</v>
+        <v>9.931770889500525</v>
       </c>
       <c r="D139">
-        <v>8.041623937385927</v>
+        <v>7.342001858894334</v>
       </c>
       <c r="E139">
-        <v>7.64413085401201</v>
+        <v>8.913532760936512</v>
       </c>
       <c r="F139">
-        <v>0</v>
+        <v>6.934344130003654</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3154,19 +3154,19 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6.760410040683628</v>
+        <v>7.64387742506874</v>
       </c>
       <c r="C140">
-        <v>8.418337096855048</v>
+        <v>9.980656577301875</v>
       </c>
       <c r="D140">
-        <v>8.100512365140206</v>
+        <v>7.38844211274162</v>
       </c>
       <c r="E140">
-        <v>7.701216468984543</v>
+        <v>8.959492425375457</v>
       </c>
       <c r="F140">
-        <v>0</v>
+        <v>6.958516172917126</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3174,19 +3174,19 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6.821319281643722</v>
+        <v>7.67677846474998</v>
       </c>
       <c r="C141">
-        <v>8.484953538100033</v>
+        <v>10.02881092232226</v>
       </c>
       <c r="D141">
-        <v>8.15927044567735</v>
+        <v>7.434477632298971</v>
       </c>
       <c r="E141">
-        <v>7.758130091632762</v>
+        <v>9.005069948230487</v>
       </c>
       <c r="F141">
-        <v>0</v>
+        <v>6.982232402203906</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3194,19 +3194,19 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6.882163760684329</v>
+        <v>7.709291048351368</v>
       </c>
       <c r="C142">
-        <v>8.551269676150598</v>
+        <v>10.07624187031114</v>
       </c>
       <c r="D142">
-        <v>8.21789908628392</v>
+        <v>7.480107742668568</v>
       </c>
       <c r="E142">
-        <v>7.814872193992633</v>
+        <v>9.05026999934055</v>
       </c>
       <c r="F142">
-        <v>0</v>
+        <v>7.00549902328949</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -3214,19 +3214,19 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6.942943399801473</v>
+        <v>7.741418677980455</v>
       </c>
       <c r="C143">
-        <v>8.617288464670287</v>
+        <v>10.12295739841773</v>
       </c>
       <c r="D143">
-        <v>8.276399218875499</v>
+        <v>7.525331865754286</v>
       </c>
       <c r="E143">
-        <v>7.871443286505796</v>
+        <v>9.095097233853792</v>
       </c>
       <c r="F143">
-        <v>0</v>
+        <v>7.028322233643386</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -3234,19 +3234,19 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>7.003658136344074</v>
+        <v>7.773164918373484</v>
       </c>
       <c r="C144">
-        <v>8.68301288146754</v>
+        <v>10.16896551310067</v>
       </c>
       <c r="D144">
-        <v>8.334771797789475</v>
+        <v>7.570149517863803</v>
       </c>
       <c r="E144">
-        <v>7.92784391566772</v>
+        <v>9.139556288182364</v>
       </c>
       <c r="F144">
-        <v>0</v>
+        <v>7.050708208558421</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -3254,19 +3254,19 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>7.064307921687208</v>
+        <v>7.804533375309262</v>
       </c>
       <c r="C145">
-        <v>8.748445925536611</v>
+        <v>10.21427423679531</v>
       </c>
       <c r="D145">
-        <v>8.39301779773632</v>
+        <v>7.614560304752152</v>
       </c>
       <c r="E145">
-        <v>7.984074661803217</v>
+        <v>9.18365177790459</v>
       </c>
       <c r="F145">
-        <v>0</v>
+        <v>7.07266310529702</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -3274,19 +3274,19 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>7.124892720039496</v>
+        <v>7.835527705501163</v>
       </c>
       <c r="C146">
-        <v>8.813590614268245</v>
+        <v>10.25889160568808</v>
       </c>
       <c r="D146">
-        <v>8.451138211897979</v>
+        <v>7.65856391951542</v>
       </c>
       <c r="E146">
-        <v>8.040136136961875</v>
+        <v>9.227388295708622</v>
       </c>
       <c r="F146">
-        <v>0</v>
+        <v>7.094193050355249</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -3294,19 +3294,19 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>7.185412507370072</v>
+        <v>7.866151596101606</v>
       </c>
       <c r="C147">
-        <v>8.878449980821346</v>
+        <v>10.30282565811462</v>
       </c>
       <c r="D147">
-        <v>8.509134050162636</v>
+        <v>7.702160144017691</v>
       </c>
       <c r="E147">
-        <v>8.096028982926523</v>
+        <v>9.270770408516285</v>
       </c>
       <c r="F147">
-        <v>0</v>
+        <v>7.115304143847624</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -3314,19 +3314,19 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>7.245867270441515</v>
+        <v>7.896408772723627</v>
       </c>
       <c r="C148">
-        <v>8.943027071647373</v>
+        <v>10.34608443271717</v>
       </c>
       <c r="D148">
-        <v>8.567006337486387</v>
+        <v>7.745348837255531</v>
       </c>
       <c r="E148">
-        <v>8.151753869328324</v>
+        <v>9.313802656891545</v>
       </c>
       <c r="F148">
-        <v>0</v>
+        <v>7.136002447942714</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -3334,19 +3334,19 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>7.306257005934529</v>
+        <v>7.926302984843845</v>
       </c>
       <c r="C149">
-        <v>9.007324944159445</v>
+        <v>10.38867595808097</v>
       </c>
       <c r="D149">
-        <v>8.624756112371834</v>
+        <v>7.788129940073643</v>
       </c>
       <c r="E149">
-        <v>8.207311491862418</v>
+        <v>9.356489549553061</v>
       </c>
       <c r="F149">
-        <v>0</v>
+        <v>7.156293990582332</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -3354,19 +3354,19 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>7.366581719657908</v>
+        <v>7.955838004734334</v>
       </c>
       <c r="C150">
-        <v>9.071346664538783</v>
+        <v>10.43060825127043</v>
       </c>
       <c r="D150">
-        <v>8.682384425454979</v>
+        <v>7.830503474658452</v>
       </c>
       <c r="E150">
-        <v>8.26270257059865</v>
+        <v>9.398835568513821</v>
       </c>
       <c r="F150">
-        <v>0</v>
+        <v>7.176184756555578</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -3374,19 +3374,19 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>7.42684142583621</v>
+        <v>7.985017627154389</v>
       </c>
       <c r="C151">
-        <v>9.135095305671438</v>
+        <v>10.47188931085265</v>
       </c>
       <c r="D151">
-        <v>8.739892338196958</v>
+        <v>7.872469531652464</v>
       </c>
       <c r="E151">
-        <v>8.317927848382029</v>
+        <v>9.440845158721574</v>
       </c>
       <c r="F151">
-        <v>0</v>
+        <v>7.195680689086333</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -3394,19 +3394,19 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>7.487036146458033</v>
+        <v>8.013845655119145</v>
       </c>
       <c r="C152">
-        <v>9.198573945208565</v>
+        <v>10.51252711360644</v>
       </c>
       <c r="D152">
-        <v>8.79728092166655</v>
+        <v>7.914028278942762</v>
       </c>
       <c r="E152">
-        <v>8.372988089318042</v>
+        <v>9.482522731756351</v>
       </c>
       <c r="F152">
-        <v>0</v>
+        <v>7.214787683916782</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -3414,19 +3414,19 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>7.547165910686094</v>
+        <v>8.042325909845315</v>
       </c>
       <c r="C153">
-        <v>9.261785663744153</v>
+        <v>10.55252959972112</v>
       </c>
       <c r="D153">
-        <v>8.854551255411307</v>
+        <v>7.955179955881473</v>
       </c>
       <c r="E153">
-        <v>8.427884077338224</v>
+        <v>9.523872668860111</v>
       </c>
       <c r="F153">
-        <v>0</v>
+        <v>7.233511591244261</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -3434,19 +3434,19 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>7.60723075432173</v>
+        <v>8.070462212736407</v>
       </c>
       <c r="C154">
-        <v>9.324733543103955</v>
+        <v>10.59190468539232</v>
       </c>
       <c r="D154">
-        <v>8.911704426410632</v>
+        <v>7.995924866340974</v>
       </c>
       <c r="E154">
-        <v>8.482616614841655</v>
+        <v>9.564899307519289</v>
       </c>
       <c r="F154">
-        <v>0</v>
+        <v>7.251858208424589</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -3454,19 +3454,19 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>7.667230719315078</v>
+        <v>8.098258394011804</v>
       </c>
       <c r="C155">
-        <v>9.387420664740109</v>
+        <v>10.63066025182156</v>
       </c>
       <c r="D155">
-        <v>8.968741528104015</v>
+        <v>8.036263384659081</v>
       </c>
       <c r="E155">
-        <v>8.537186521408328</v>
+        <v>9.605606955234689</v>
       </c>
       <c r="F155">
-        <v>0</v>
+        <v>7.269833275902083</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -3474,19 +3474,19 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>7.727165853318383</v>
+        <v>8.125718282180836</v>
       </c>
       <c r="C156">
-        <v>9.449850108225981</v>
+        <v>10.66880412075584</v>
       </c>
       <c r="D156">
-        <v>9.025663659490053</v>
+        <v>8.076195947592099</v>
       </c>
       <c r="E156">
-        <v>8.591594632580541</v>
+        <v>9.645999877587919</v>
       </c>
       <c r="F156">
-        <v>0</v>
+        <v>7.287442487636858</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -3494,19 +3494,19 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>7.787036209278335</v>
+        <v>8.152845703232556</v>
       </c>
       <c r="C157">
-        <v>9.512024949846024</v>
+        <v>10.70634408696641</v>
       </c>
       <c r="D157">
-        <v>9.082471924290882</v>
+        <v>8.115723053456652</v>
       </c>
       <c r="E157">
-        <v>8.645841798708748</v>
+        <v>9.686082301425927</v>
       </c>
       <c r="F157">
-        <v>0</v>
+        <v>7.304691477055257</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -3514,19 +3514,19 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>7.846841845061955</v>
+        <v>8.17964448028235</v>
       </c>
       <c r="C158">
-        <v>9.573948261276024</v>
+        <v>10.74328790461735</v>
       </c>
       <c r="D158">
-        <v>9.13916743017762</v>
+        <v>8.154845263094904</v>
       </c>
       <c r="E158">
-        <v>8.699928883858455</v>
+        <v>9.725858417243639</v>
       </c>
       <c r="F158">
-        <v>0</v>
+        <v>7.321585810137464</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -3534,19 +3534,19 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>7.906582823113814</v>
+        <v>8.206118425144036</v>
       </c>
       <c r="C159">
-        <v>9.635623108348836</v>
+        <v>10.77964325160567</v>
       </c>
       <c r="D159">
-        <v>9.195751288052657</v>
+        <v>8.193563193377161</v>
       </c>
       <c r="E159">
-        <v>8.753856764774952</v>
+        <v>9.765332371982865</v>
       </c>
       <c r="F159">
-        <v>0</v>
+        <v>7.338131006070792</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -3554,19 +3554,19 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>7.966259210141502</v>
+        <v>8.232271343858235</v>
       </c>
       <c r="C160">
-        <v>9.69705254990139</v>
+        <v>10.81541777115515</v>
       </c>
       <c r="D160">
-        <v>9.252224611384738</v>
+        <v>8.231877518155791</v>
       </c>
       <c r="E160">
-        <v>8.807626329902913</v>
+        <v>9.804508274552818</v>
       </c>
       <c r="F160">
-        <v>0</v>
+        <v>7.354332524538032</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -3574,19 +3574,19 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>8.025871076825918</v>
+        <v>8.258107025662623</v>
       </c>
       <c r="C161">
-        <v>9.758239636698674</v>
+        <v>10.8506190590883</v>
       </c>
       <c r="D161">
-        <v>9.3085885155933</v>
+        <v>8.269788967451715</v>
       </c>
       <c r="E161">
-        <v>8.861238478457961</v>
+        <v>9.843390191578751</v>
       </c>
       <c r="F161">
-        <v>0</v>
+        <v>7.370195748077331</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -3594,19 +3594,19 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>8.085418497554619</v>
+        <v>8.283629248746925</v>
       </c>
       <c r="C162">
-        <v>9.819187410430709</v>
+        <v>10.88525463222626</v>
       </c>
       <c r="D162">
-        <v>9.364844117478638</v>
+        <v>8.307298321673523</v>
       </c>
       <c r="E162">
-        <v>8.91469411954753</v>
+        <v>9.88198214800722</v>
       </c>
       <c r="F162">
-        <v>0</v>
+        <v>7.385726007982351</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -3614,19 +3614,19 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>8.144901550175955</v>
+        <v>8.308841773104676</v>
       </c>
       <c r="C163">
-        <v>9.879898902778862</v>
+        <v>10.919331959964</v>
       </c>
       <c r="D163">
-        <v>9.42099253469474</v>
+        <v>8.344406413603249</v>
       </c>
       <c r="E163">
-        <v>8.967994171338489</v>
+        <v>9.920288128741745</v>
       </c>
       <c r="F163">
-        <v>0</v>
+        <v>7.400928578114694</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -3634,19 +3634,19 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>8.204320315771698</v>
+        <v>8.333748340427636</v>
       </c>
       <c r="C164">
-        <v>9.940377134547733</v>
+        <v>10.95285845522122</v>
       </c>
       <c r="D164">
-        <v>9.477034885261903</v>
+        <v>8.381114126391214</v>
       </c>
       <c r="E164">
-        <v>9.0211395602691</v>
+        <v>9.958312074331044</v>
       </c>
       <c r="F164">
-        <v>0</v>
+        <v>7.415808653515111</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -3654,19 +3654,19 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>8.263674878446887</v>
+        <v>8.358352674246596</v>
       </c>
       <c r="C165">
-        <v>10.00062511485928</v>
+        <v>10.98584145445257</v>
       </c>
       <c r="D165">
-        <v>9.532972287116317</v>
+        <v>8.417422388694918</v>
       </c>
       <c r="E165">
-        <v>9.07413122030307</v>
+        <v>9.996057885365969</v>
       </c>
       <c r="F165">
-        <v>0</v>
+        <v>7.430371371668967</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -3674,19 +3674,19 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>8.322965325135156</v>
+        <v>8.382658473957724</v>
       </c>
       <c r="C166">
-        <v>10.06064584040593</v>
+        <v>11.01828823565555</v>
       </c>
       <c r="D166">
-        <v>9.588805857694235</v>
+        <v>8.453332177280181</v>
       </c>
       <c r="E166">
-        <v>9.126970092223482</v>
+        <v>10.03352941918557</v>
       </c>
       <c r="F166">
-        <v>0</v>
+        <v>7.444621810302777</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -3694,19 +3694,19 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>8.382191745418018</v>
+        <v>8.406669419217788</v>
       </c>
       <c r="C167">
-        <v>10.1204422947594</v>
+        <v>11.05020601323738</v>
       </c>
       <c r="D167">
-        <v>9.644536713548218</v>
+        <v>8.488844513055176</v>
       </c>
       <c r="E167">
-        <v>9.179657122964667</v>
+        <v>10.07073049037947</v>
       </c>
       <c r="F167">
-        <v>0</v>
+        <v>7.458564971834241</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -3714,19 +3714,19 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>8.44135423135714</v>
+        <v>8.43038916243543</v>
       </c>
       <c r="C168">
-        <v>10.18001744773263</v>
+        <v>11.08160192437936</v>
       </c>
       <c r="D168">
-        <v>9.700165969993332</v>
+        <v>8.523960458851871</v>
       </c>
       <c r="E168">
-        <v>9.232193264979957</v>
+        <v>10.1076648730903</v>
       </c>
       <c r="F168">
-        <v>0</v>
+        <v>7.472205796208001</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -3734,19 +3734,19 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>8.500452877338322</v>
+        <v>8.453821332849254</v>
       </c>
       <c r="C169">
-        <v>10.2393742547916</v>
+        <v>11.11248304131774</v>
       </c>
       <c r="D169">
-        <v>9.755694740781244</v>
+        <v>8.558681121354814</v>
       </c>
       <c r="E169">
-        <v>9.284579475643596</v>
+        <v>10.14433629715786</v>
       </c>
       <c r="F169">
-        <v>0</v>
+        <v>7.485549161198004</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -3754,19 +3754,19 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>8.559487779926105</v>
+        <v>8.476969531968363</v>
       </c>
       <c r="C170">
-        <v>10.29851565651477</v>
+        <v>11.14285636875599</v>
       </c>
       <c r="D170">
-        <v>9.811124137800299</v>
+        <v>8.59300764550898</v>
       </c>
       <c r="E170">
-        <v>9.336816716685023</v>
+        <v>10.18074845163788</v>
       </c>
       <c r="F170">
-        <v>0</v>
+        <v>7.498599871204868</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -3774,19 +3774,19 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>8.618459037728341</v>
+        <v>8.499837333655977</v>
       </c>
       <c r="C171">
-        <v>10.35744457809718</v>
+        <v>11.17272883072541</v>
       </c>
       <c r="D171">
-        <v>9.866455270799818</v>
+        <v>8.626941215161118</v>
       </c>
       <c r="E171">
-        <v>9.388905953653888</v>
+        <v>10.21690498307763</v>
       </c>
       <c r="F171">
-        <v>0</v>
+        <v>7.511362665706051</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -3794,19 +3794,19 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>8.677366751269684</v>
+        <v>8.522428284318787</v>
       </c>
       <c r="C172">
-        <v>10.4161639288972</v>
+        <v>11.20210728373476</v>
       </c>
       <c r="D172">
-        <v>9.921689247136941</v>
+        <v>8.660483052944686</v>
       </c>
       <c r="E172">
-        <v>9.44084815541426</v>
+        <v>10.25280949565876</v>
       </c>
       <c r="F172">
-        <v>0</v>
+        <v>7.523842221892978</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -3814,19 +3814,19 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>8.736211022873302</v>
+        <v>8.544745899197634</v>
       </c>
       <c r="C173">
-        <v>10.47467660202329</v>
+        <v>11.23099851608388</v>
       </c>
       <c r="D173">
-        <v>9.976827171544489</v>
+        <v>8.693634415662506</v>
       </c>
       <c r="E173">
-        <v>9.492644293666526</v>
+        <v>10.28846555275979</v>
       </c>
       <c r="F173">
-        <v>0</v>
+        <v>7.536043143364884</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -3834,19 +3834,19 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>8.794991956550293</v>
+        <v>8.566793665458388</v>
       </c>
       <c r="C174">
-        <v>10.53298547395887</v>
+        <v>11.25940923158049</v>
       </c>
       <c r="D174">
-        <v>10.0318701459184</v>
+        <v>8.726396595394753</v>
       </c>
       <c r="E174">
-        <v>9.544295342495596</v>
+        <v>10.32387667503149</v>
       </c>
       <c r="F174">
-        <v>0</v>
+        <v>7.547969968314494</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -3854,19 +3854,19 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>8.853709657896017</v>
+        <v>8.588575037285089</v>
       </c>
       <c r="C175">
-        <v>10.59109340422299</v>
+        <v>11.28734606466972</v>
       </c>
       <c r="D175">
-        <v>10.08681926912342</v>
+        <v>8.758770918456454</v>
       </c>
       <c r="E175">
-        <v>9.595802277944056</v>
+        <v>10.3590463424746</v>
       </c>
       <c r="F175">
-        <v>0</v>
+        <v>7.559627175426181</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -3874,19 +3874,19 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>8.912364233992843</v>
+        <v>8.610093438915957</v>
       </c>
       <c r="C176">
-        <v>10.64900323506495</v>
+        <v>11.31481557957475</v>
       </c>
       <c r="D176">
-        <v>10.14167563681573</v>
+        <v>8.790758741677745</v>
       </c>
       <c r="E176">
-        <v>9.647166077609061</v>
+        <v>10.39397799371096</v>
       </c>
       <c r="F176">
-        <v>0</v>
+        <v>7.571019168514521</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -3894,19 +3894,19 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>8.970955793318925</v>
+        <v>8.631352261674786</v>
       </c>
       <c r="C177">
-        <v>10.70671779119096</v>
+        <v>11.34182425666253</v>
       </c>
       <c r="D177">
-        <v>10.19644034128144</v>
+        <v>8.822361453814258</v>
       </c>
       <c r="E177">
-        <v>9.698387720261691</v>
+        <v>10.42867502611042</v>
       </c>
       <c r="F177">
-        <v>0</v>
+        <v>7.582150287018166</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -3914,19 +3914,19 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>9.029484445662419</v>
+        <v>8.652354864252393</v>
       </c>
       <c r="C178">
-        <v>10.76423987952103</v>
+        <v>11.36837850453885</v>
       </c>
       <c r="D178">
-        <v>10.25111447128981</v>
+        <v>8.853580473443811</v>
       </c>
       <c r="E178">
-        <v>9.749468185487705</v>
+        <v>10.46314079728416</v>
       </c>
       <c r="F178">
-        <v>0</v>
+        <v>7.593024810763157</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -3934,19 +3934,19 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>9.087950302040744</v>
+        <v>8.673104573027386</v>
       </c>
       <c r="C179">
-        <v>10.82157228897446</v>
+        <v>11.39448465954022</v>
       </c>
       <c r="D179">
-        <v>10.30569911196013</v>
+        <v>8.884417246494403</v>
       </c>
       <c r="E179">
-        <v>9.80040845334857</v>
+        <v>10.49737862361785</v>
       </c>
       <c r="F179">
-        <v>0</v>
+        <v>7.603646947446598</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -3954,19 +3954,19 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>9.146353474624643</v>
+        <v>8.693604679743546</v>
       </c>
       <c r="C180">
-        <v>10.87871779028219</v>
+        <v>11.42014897586724</v>
       </c>
       <c r="D180">
-        <v>10.36019534464147</v>
+        <v>8.914873247757182</v>
       </c>
       <c r="E180">
-        <v>9.851209504061737</v>
+        <v>10.5313917820731</v>
       </c>
       <c r="F180">
-        <v>0</v>
+        <v>7.61402084112495</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -3974,19 +3974,19 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>9.20469407666654</v>
+        <v>8.713858443741174</v>
       </c>
       <c r="C181">
-        <v>10.93567913582464</v>
+        <v>11.44537763423352</v>
       </c>
       <c r="D181">
-        <v>10.41460424680419</v>
+        <v>8.944949977434494</v>
       </c>
       <c r="E181">
-        <v>9.901872317699235</v>
+        <v>10.56518350988993</v>
       </c>
       <c r="F181">
-        <v>0</v>
+        <v>7.624150575048532</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -3994,19 +3994,19 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>9.262972222432943</v>
+        <v>8.733869088903074</v>
       </c>
       <c r="C182">
-        <v>10.99245905949342</v>
+        <v>11.47017674196351</v>
       </c>
       <c r="D182">
-        <v>10.46892689194264</v>
+        <v>8.974648960532582</v>
       </c>
       <c r="E182">
-        <v>9.952397873903585</v>
+        <v>10.59875700470203</v>
       </c>
       <c r="F182">
-        <v>0</v>
+        <v>7.634040164623899</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4014,19 +4014,19 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>9.321188027140696</v>
+        <v>8.753639805806742</v>
       </c>
       <c r="C183">
-        <v>11.04906027657561</v>
+        <v>11.49455232551575</v>
       </c>
       <c r="D183">
-        <v>10.52316434948802</v>
+        <v>9.00397174773272</v>
       </c>
       <c r="E183">
-        <v>10.00278715162023</v>
+        <v>10.63211542572492</v>
       </c>
       <c r="F183">
-        <v>0</v>
+        <v>7.643693561975351</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4034,19 +4034,19 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>9.379341606896656</v>
+        <v>8.773173749944844</v>
       </c>
       <c r="C184">
-        <v>11.10548548365934</v>
+        <v>11.51851033729269</v>
       </c>
       <c r="D184">
-        <v>10.57731768473096</v>
+        <v>9.032919911262352</v>
       </c>
       <c r="E184">
-        <v>10.05304112884559</v>
+        <v>10.66526189307951</v>
       </c>
       <c r="F184">
-        <v>0</v>
+        <v>7.653114658253307</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4054,19 +4054,19 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>9.437433078640664</v>
+        <v>8.792474042091936</v>
       </c>
       <c r="C185">
-        <v>11.1617373585593</v>
+        <v>11.54205665650818</v>
       </c>
       <c r="D185">
-        <v>10.63138795875284</v>
+        <v>9.061495045877917</v>
       </c>
       <c r="E185">
-        <v>10.10316078238998</v>
+        <v>10.69819948897309</v>
       </c>
       <c r="F185">
-        <v>0</v>
+        <v>7.662307280290579</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4074,19 +4074,19 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>9.495462560091624</v>
+        <v>8.811543768672411</v>
       </c>
       <c r="C186">
-        <v>11.21781856026105</v>
+        <v>11.56519708220461</v>
       </c>
       <c r="D186">
-        <v>10.68537622836556</v>
+        <v>9.089698768415804</v>
       </c>
       <c r="E186">
-        <v>10.1531470876546</v>
+        <v>10.73093125778954</v>
       </c>
       <c r="F186">
-        <v>0</v>
+        <v>7.671275192406808</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4094,19 +4094,19 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>9.55343016969635</v>
+        <v>8.830385980409703</v>
       </c>
       <c r="C187">
-        <v>11.27373172888309</v>
+        <v>11.58793733975996</v>
       </c>
       <c r="D187">
-        <v>10.73928354605882</v>
+        <v>9.117532714570288</v>
       </c>
       <c r="E187">
-        <v>10.20300101842213</v>
+        <v>10.76346020629932</v>
       </c>
       <c r="F187">
-        <v>0</v>
+        <v>7.680022099108911</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4114,19 +4114,19 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>9.611336026581132</v>
+        <v>8.849003693966623</v>
       </c>
       <c r="C188">
-        <v>11.32947948565542</v>
+        <v>11.61028308216838</v>
       </c>
       <c r="D188">
-        <v>10.79311095995473</v>
+        <v>9.14499853994695</v>
       </c>
       <c r="E188">
-        <v>10.25272354665969</v>
+        <v>10.79578930457488</v>
       </c>
       <c r="F188">
-        <v>0</v>
+        <v>7.688551643173907</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4134,19 +4134,19 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>9.669180250505796</v>
+        <v>8.867399890099831</v>
       </c>
       <c r="C189">
-        <v>11.38506443291377</v>
+        <v>11.63223988335523</v>
       </c>
       <c r="D189">
-        <v>10.84685951376892</v>
+        <v>9.172097918935304</v>
       </c>
       <c r="E189">
-        <v>10.30231564233326</v>
+        <v>10.82792148576626</v>
       </c>
       <c r="F189">
-        <v>0</v>
+        <v>7.696867406236939</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4154,19 +4154,19 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>9.726962961820098</v>
+        <v>8.885577515861673</v>
       </c>
       <c r="C190">
-        <v>11.44048915410848</v>
+        <v>11.6538132444046</v>
       </c>
       <c r="D190">
-        <v>10.90053024677789</v>
+        <v>9.19883254236958</v>
       </c>
       <c r="E190">
-        <v>10.35177827323539</v>
+        <v>10.85985964698832</v>
       </c>
       <c r="F190">
-        <v>0</v>
+        <v>7.704972911669222</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4174,19 +4174,19 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>9.784684281422287</v>
+        <v>8.903539482442152</v>
       </c>
       <c r="C191">
-        <v>11.49575621382702</v>
+        <v>11.6750085948613</v>
       </c>
       <c r="D191">
-        <v>10.95412419379208</v>
+        <v>9.225204118314188</v>
       </c>
       <c r="E191">
-        <v>10.40111240482243</v>
+        <v>10.89160664959015</v>
       </c>
       <c r="F191">
-        <v>0</v>
+        <v>7.712871623677263</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4194,19 +4194,19 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>9.842344330719801</v>
+        <v>8.921288665473103</v>
       </c>
       <c r="C192">
-        <v>11.55086815782941</v>
+        <v>11.69583128709283</v>
       </c>
       <c r="D192">
-        <v>11.00764238513417</v>
+        <v>9.251214370769219</v>
       </c>
       <c r="E192">
-        <v>10.45031900006194</v>
+        <v>10.92316531942632</v>
       </c>
       <c r="F192">
-        <v>0</v>
+        <v>7.720566947026515</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -4214,19 +4214,19 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>9.899943231591822</v>
+        <v>8.938827906382182</v>
       </c>
       <c r="C193">
-        <v>11.60582751309564</v>
+        <v>11.71628660162325</v>
       </c>
       <c r="D193">
-        <v>11.06108584662243</v>
+        <v>9.276865038555217</v>
       </c>
       <c r="E193">
-        <v>10.4993990192904</v>
+        <v>10.95453844758661</v>
       </c>
       <c r="F193">
-        <v>0</v>
+        <v>7.728062229848834</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -4234,19 +4234,19 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>9.957481106353706</v>
+        <v>8.956160013977998</v>
       </c>
       <c r="C194">
-        <v>11.66063678788438</v>
+        <v>11.73637974831911</v>
       </c>
       <c r="D194">
-        <v>11.11445559955855</v>
+        <v>9.302157874838088</v>
       </c>
       <c r="E194">
-        <v>10.5483534200799</v>
+        <v>10.98572879048664</v>
       </c>
       <c r="F194">
-        <v>0</v>
+        <v>7.735360763594348</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -4254,19 +4254,19 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>10.01495807772313</v>
+        <v>8.973287758325737</v>
       </c>
       <c r="C195">
-        <v>11.7152984718021</v>
+        <v>11.75611586220902</v>
       </c>
       <c r="D195">
-        <v>11.16775266071966</v>
+        <v>9.327094646167328</v>
       </c>
       <c r="E195">
-        <v>10.59718315711394</v>
+        <v>11.01673907051344</v>
       </c>
       <c r="F195">
-        <v>0</v>
+        <v>7.742465782368056</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -4274,19 +4274,19 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>10.07237426878784</v>
+        <v>8.990213875398945</v>
       </c>
       <c r="C196">
-        <v>11.76981503588214</v>
+        <v>11.77550000767967</v>
       </c>
       <c r="D196">
-        <v>11.22097804235439</v>
+        <v>9.351677131712327</v>
       </c>
       <c r="E196">
-        <v>10.64588918207128</v>
+        <v>11.04757197639723</v>
       </c>
       <c r="F196">
-        <v>0</v>
+        <v>7.749380465346581</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -4294,19 +4294,19 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>10.12972980297494</v>
+        <v>9.006941071897588</v>
       </c>
       <c r="C197">
-        <v>11.82418893267277</v>
+        <v>11.79453717964237</v>
       </c>
       <c r="D197">
-        <v>11.27413275218243</v>
+        <v>9.375907122601175</v>
       </c>
       <c r="E197">
-        <v>10.69447244351771</v>
+        <v>11.07823016356972</v>
       </c>
       <c r="F197">
-        <v>0</v>
+        <v>7.756107937240651</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -4314,19 +4314,19 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>10.18702480402162</v>
+        <v>9.023472015975969</v>
       </c>
       <c r="C198">
-        <v>11.87842259633387</v>
+        <v>11.81323230050269</v>
       </c>
       <c r="D198">
-        <v>11.32721779339748</v>
+        <v>9.399786421178943</v>
       </c>
       <c r="E198">
-        <v>10.74293388680567</v>
+        <v>11.10871625469406</v>
       </c>
       <c r="F198">
-        <v>0</v>
+        <v>7.762651267813343</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -4334,19 +4334,19 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>10.24425939594727</v>
+        <v>9.039809341294013</v>
       </c>
       <c r="C199">
-        <v>11.93251844274148</v>
+        <v>11.83159022351437</v>
       </c>
       <c r="D199">
-        <v>11.38023416467331</v>
+        <v>9.423316840284253</v>
       </c>
       <c r="E199">
-        <v>10.79127445398055</v>
+        <v>11.13903283999749</v>
       </c>
       <c r="F199">
-        <v>0</v>
+        <v>7.769013473736383</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -4354,19 +4354,19 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>10.30143370302687</v>
+        <v>9.055955649251466</v>
       </c>
       <c r="C200">
-        <v>11.98647886959969</v>
+        <v>11.84961573401229</v>
       </c>
       <c r="D200">
-        <v>11.43318286017264</v>
+        <v>9.446500202742113</v>
       </c>
       <c r="E200">
-        <v>10.83949508369395</v>
+        <v>11.16918247774495</v>
       </c>
       <c r="F200">
-        <v>0</v>
+        <v>7.775197519273251</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -4374,19 +4374,19 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>10.35854784976557</v>
+        <v>9.071913510571106</v>
       </c>
       <c r="C201">
-        <v>12.04030625655943</v>
+        <v>11.86731354705056</v>
       </c>
       <c r="D201">
-        <v>11.48606486955871</v>
+        <v>9.469338340492374</v>
       </c>
       <c r="E201">
-        <v>10.88759671112352</v>
+        <v>11.19916769465327</v>
       </c>
       <c r="F201">
-        <v>0</v>
+        <v>7.781206316181491</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -4394,19 +4394,19 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>10.41560196087453</v>
+        <v>9.08768545830894</v>
       </c>
       <c r="C202">
-        <v>12.09400296534344</v>
+        <v>11.88468831028709</v>
       </c>
       <c r="D202">
-        <v>11.53888117800918</v>
+        <v>9.491833094207099</v>
       </c>
       <c r="E202">
-        <v>10.93558026789841</v>
+        <v>11.22899098630873</v>
       </c>
       <c r="F202">
-        <v>0</v>
+        <v>7.787042725103842</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -4414,19 +4414,19 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>10.47259616124771</v>
+        <v>9.103273993771365</v>
       </c>
       <c r="C203">
-        <v>12.1475713398772</v>
+        <v>11.90174460524084</v>
       </c>
       <c r="D203">
-        <v>11.59163276623242</v>
+        <v>9.513986312434493</v>
       </c>
       <c r="E203">
-        <v>10.98344668203092</v>
+        <v>11.25865481756342</v>
       </c>
       <c r="F203">
-        <v>0</v>
+        <v>7.792709556338947</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -4434,19 +4434,19 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>10.52953057593989</v>
+        <v>9.118681587457331</v>
       </c>
       <c r="C204">
-        <v>12.20101370642517</v>
+        <v>11.91848694541124</v>
       </c>
       <c r="D204">
-        <v>11.64432061048555</v>
+        <v>9.53579985118496</v>
       </c>
       <c r="E204">
-        <v>11.03119687785336</v>
+        <v>11.28816162300408</v>
       </c>
       <c r="F204">
-        <v>0</v>
+        <v>7.798209570029264</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -4454,19 +4454,19 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>10.58640533014546</v>
+        <v>9.13391067582341</v>
       </c>
       <c r="C205">
-        <v>12.25433237373202</v>
+        <v>11.93491977882177</v>
       </c>
       <c r="D205">
-        <v>11.69694568259465</v>
+        <v>9.557275573187525</v>
       </c>
       <c r="E205">
-        <v>11.07883177596007</v>
+        <v>11.31751380731461</v>
       </c>
       <c r="F205">
-        <v>0</v>
+        <v>7.803545477276515</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -4474,19 +4474,19 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>10.64322054917836</v>
+        <v>9.148963662994225</v>
       </c>
       <c r="C206">
-        <v>12.30752963316845</v>
+        <v>11.95104748920036</v>
       </c>
       <c r="D206">
-        <v>11.7495089499768</v>
+        <v>9.578415347451616</v>
       </c>
       <c r="E206">
-        <v>11.12635229315453</v>
+        <v>11.34671374569365</v>
       </c>
       <c r="F206">
-        <v>0</v>
+        <v>7.808719940911088</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -4494,19 +4494,19 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>10.69997635845277</v>
+        <v>9.163842921573522</v>
       </c>
       <c r="C207">
-        <v>12.36060775888096</v>
+        <v>11.96687439464831</v>
       </c>
       <c r="D207">
-        <v>11.80201137566337</v>
+        <v>9.599221048577737</v>
       </c>
       <c r="E207">
-        <v>11.17375934240077</v>
+        <v>11.37576378432332</v>
       </c>
       <c r="F207">
-        <v>0</v>
+        <v>7.813735575908803</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -4514,19 +4514,19 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>10.7566728834647</v>
+        <v>9.178550793120706</v>
       </c>
       <c r="C208">
-        <v>12.41356900794562</v>
+        <v>11.98240474979069</v>
       </c>
       <c r="D208">
-        <v>11.85445391832491</v>
+        <v>9.619694556382147</v>
       </c>
       <c r="E208">
-        <v>11.22105383277949</v>
+        <v>11.40466624064143</v>
       </c>
       <c r="F208">
-        <v>0</v>
+        <v>7.81859495031617</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -4534,19 +4534,19 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>10.81331024977445</v>
+        <v>9.193089586799118</v>
       </c>
       <c r="C209">
-        <v>12.46641562052542</v>
+        <v>11.99764274682779</v>
       </c>
       <c r="D209">
-        <v>11.90683753229737</v>
+        <v>9.639837755188575</v>
       </c>
       <c r="E209">
-        <v>11.26823666944818</v>
+        <v>11.43342340391213</v>
       </c>
       <c r="F209">
-        <v>0</v>
+        <v>7.823300585910595</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -4554,19 +4554,19 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>10.86988858298974</v>
+        <v>9.20746158091104</v>
       </c>
       <c r="C210">
-        <v>12.5191498200307</v>
+        <v>12.01259251480565</v>
       </c>
       <c r="D210">
-        <v>11.95916316760954</v>
+        <v>9.659652533539546</v>
       </c>
       <c r="E210">
-        <v>11.31530875360511</v>
+        <v>11.46203753549991</v>
       </c>
       <c r="F210">
-        <v>0</v>
+        <v>7.82785495893155</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -4574,19 +4574,19 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>10.9264080087496</v>
+        <v>9.221669023744964</v>
       </c>
       <c r="C211">
-        <v>12.57177381328216</v>
+        <v>12.02725812134233</v>
       </c>
       <c r="D211">
-        <v>12.01143177001162</v>
+        <v>9.679140783476216</v>
       </c>
       <c r="E211">
-        <v>11.36227098245721</v>
+        <v>11.49051086927159</v>
       </c>
       <c r="F211">
-        <v>0</v>
+        <v>7.832260500788055</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -4594,19 +4594,19 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>10.98286865270896</v>
+        <v>9.235714132428132</v>
       </c>
       <c r="C212">
-        <v>12.62428979067665</v>
+        <v>12.04164357356571</v>
       </c>
       <c r="D212">
-        <v>12.06364428100461</v>
+        <v>9.698304400291949</v>
       </c>
       <c r="E212">
-        <v>11.40912424919135</v>
+        <v>11.51884561210001</v>
       </c>
       <c r="F212">
-        <v>0</v>
+        <v>7.836519598535606</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -4614,19 +4614,19 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>11.03927064052395</v>
+        <v>9.24959909380796</v>
       </c>
       <c r="C213">
-        <v>12.67669992635526</v>
+        <v>12.05575281790261</v>
       </c>
       <c r="D213">
-        <v>12.11580163787082</v>
+        <v>9.717145281844282</v>
       </c>
       <c r="E213">
-        <v>11.45586944294891</v>
+        <v>11.54704394404758</v>
       </c>
       <c r="F213">
-        <v>0</v>
+        <v>7.840634595997122</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -4634,19 +4634,19 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>11.09561409783784</v>
+        <v>9.263326065217585</v>
       </c>
       <c r="C214">
-        <v>12.7290063783734</v>
+        <v>12.06958974144541</v>
       </c>
       <c r="D214">
-        <v>12.16790477370509</v>
+        <v>9.735665328316339</v>
       </c>
       <c r="E214">
-        <v>11.5025074488037</v>
+        <v>11.57510801898329</v>
       </c>
       <c r="F214">
-        <v>0</v>
+        <v>7.844607794206416</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -4654,19 +4654,19 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>11.15189915026758</v>
+        <v>9.276897175212556</v>
       </c>
       <c r="C215">
-        <v>12.78121128887265</v>
+        <v>12.08315817280699</v>
       </c>
       <c r="D215">
-        <v>12.2199546174467</v>
+        <v>9.753866441549594</v>
       </c>
       <c r="E215">
-        <v>11.54903914774263</v>
+        <v>11.60303996480302</v>
       </c>
       <c r="F215">
-        <v>0</v>
+        <v>7.848441451801135</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -4674,19 +4674,19 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>11.20812592339086</v>
+        <v>9.29031452201361</v>
       </c>
       <c r="C216">
-        <v>12.8333167842542</v>
+        <v>12.09646188229022</v>
       </c>
       <c r="D216">
-        <v>12.27195209391201</v>
+        <v>9.771750524845398</v>
       </c>
       <c r="E216">
-        <v>11.5954654166493</v>
+        <v>11.63084188380368</v>
       </c>
       <c r="F216">
-        <v>0</v>
+        <v>7.852137786289599</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -4694,19 +4694,19 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>11.26429454273371</v>
+        <v>9.30358017530177</v>
       </c>
       <c r="C217">
-        <v>12.88532497535371</v>
+        <v>12.10950458299268</v>
       </c>
       <c r="D217">
-        <v>12.32389812382765</v>
+        <v>9.789319482436641</v>
       </c>
       <c r="E217">
-        <v>11.64178712829031</v>
+        <v>11.65851585320357</v>
       </c>
       <c r="F217">
-        <v>0</v>
+        <v>7.855698974459741</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -4714,19 +4714,19 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>11.3204051337588</v>
+        <v>9.316696177076269</v>
       </c>
       <c r="C218">
-        <v>12.93723795761717</v>
+        <v>12.12228993158394</v>
       </c>
       <c r="D218">
-        <v>12.37579362386426</v>
+        <v>9.80657521911623</v>
       </c>
       <c r="E218">
-        <v>11.68800515130392</v>
+        <v>11.68606392526585</v>
       </c>
       <c r="F218">
-        <v>0</v>
+        <v>7.85912715267501</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -4734,19 +4734,19 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>11.37645782185403</v>
+        <v>9.32966454054359</v>
       </c>
       <c r="C219">
-        <v>12.98905781127791</v>
+        <v>12.13482152876627</v>
       </c>
       <c r="D219">
-        <v>12.42763950667058</v>
+        <v>9.823519639822456</v>
       </c>
       <c r="E219">
-        <v>11.73412035019126</v>
+        <v>11.71348812791982</v>
       </c>
       <c r="F219">
-        <v>0</v>
+        <v>7.862424418097451</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -4754,19 +4754,19 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>11.43245273232181</v>
+        <v>9.342487251058154</v>
       </c>
       <c r="C220">
-        <v>13.04078660153428</v>
+        <v>12.14710292017762</v>
       </c>
       <c r="D220">
-        <v>12.47943668090811</v>
+        <v>9.840154649278013</v>
       </c>
       <c r="E220">
-        <v>11.78013358530967</v>
+        <v>11.74079046495808</v>
       </c>
       <c r="F220">
-        <v>0</v>
+        <v>7.865592829230767</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -4774,19 +4774,19 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>11.48838999036861</v>
+        <v>9.355166266614249</v>
       </c>
       <c r="C221">
-        <v>13.09242637872801</v>
+        <v>12.15913759707741</v>
       </c>
       <c r="D221">
-        <v>12.53118605128597</v>
+        <v>9.856482151615365</v>
       </c>
       <c r="E221">
-        <v>11.82604571286817</v>
+        <v>11.76797291636829</v>
       </c>
       <c r="F221">
-        <v>0</v>
+        <v>7.86863440610275</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -4794,19 +4794,19 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>11.54426972109507</v>
+        <v>9.36770351816241</v>
       </c>
       <c r="C222">
-        <v>13.14397917852301</v>
+        <v>12.17092899706904</v>
       </c>
       <c r="D222">
-        <v>12.58288851859614</v>
+        <v>9.872504050058005</v>
       </c>
       <c r="E222">
-        <v>11.87185758492497</v>
+        <v>11.79503743886254</v>
       </c>
       <c r="F222">
-        <v>0</v>
+        <v>7.871551131357108</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -4814,19 +4814,19 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>11.60009204948655</v>
+        <v>9.380100909654525</v>
       </c>
       <c r="C223">
-        <v>13.19544702208458</v>
+        <v>12.18248050481964</v>
       </c>
       <c r="D223">
-        <v>12.63454497974894</v>
+        <v>9.888222246564476</v>
       </c>
       <c r="E223">
-        <v>11.91757004938679</v>
+        <v>11.82198596596087</v>
       </c>
       <c r="F223">
-        <v>0</v>
+        <v>7.874344950993688</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -4834,19 +4834,19 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>11.655857100404</v>
+        <v>9.392360318602531</v>
       </c>
       <c r="C224">
-        <v>13.2468319162587</v>
+        <v>12.19379545264636</v>
       </c>
       <c r="D224">
-        <v>12.68615632780871</v>
+        <v>9.903638641486818</v>
       </c>
       <c r="E224">
-        <v>11.96318395001006</v>
+        <v>11.84882040858563</v>
       </c>
       <c r="F224">
-        <v>0</v>
+        <v>7.877017774436811</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -4854,19 +4854,19 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>11.7115649985753</v>
+        <v>9.404483596201631</v>
       </c>
       <c r="C225">
-        <v>13.29813585375148</v>
+        <v>12.2048771214822</v>
       </c>
       <c r="D225">
-        <v>12.73772345202966</v>
+        <v>9.918755133251796</v>
       </c>
       <c r="E225">
-        <v>12.00870012640368</v>
+        <v>11.87554265525896</v>
       </c>
       <c r="F225">
-        <v>0</v>
+        <v>7.879571475462671</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -4874,19 +4874,19 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>11.76721586858691</v>
+        <v>9.416472567880804</v>
       </c>
       <c r="C226">
-        <v>13.3493608133085</v>
+        <v>12.21572874142384</v>
       </c>
       <c r="D226">
-        <v>12.78924723789189</v>
+        <v>9.933573618057283</v>
       </c>
       <c r="E226">
-        <v>12.05411941403337</v>
+        <v>11.90215457238664</v>
       </c>
       <c r="F226">
-        <v>0</v>
+        <v>7.882007893154057</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -4894,19 +4894,19 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>11.82280983487594</v>
+        <v>9.428329033533409</v>
       </c>
       <c r="C227">
-        <v>13.40050875989399</v>
+        <v>12.22635349222504</v>
       </c>
       <c r="D227">
-        <v>12.84072856713751</v>
+        <v>9.948095989573668</v>
       </c>
       <c r="E227">
-        <v>12.09944264422762</v>
+        <v>11.92865800478535</v>
       </c>
       <c r="F227">
-        <v>0</v>
+        <v>7.884328831858777</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -4914,19 +4914,19 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>11.87834702172248</v>
+        <v>9.440054767844607</v>
       </c>
       <c r="C228">
-        <v>13.45158164486981</v>
+        <v>12.23675450446793</v>
       </c>
       <c r="D228">
-        <v>12.89216831780679</v>
+        <v>9.962324138651104</v>
       </c>
       <c r="E228">
-        <v>12.14467064418487</v>
+        <v>11.95505477574237</v>
       </c>
       <c r="F228">
-        <v>0</v>
+        <v>7.886536061937361</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -4934,19 +4934,19 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>11.93382755324237</v>
+        <v>9.451651520658437</v>
       </c>
       <c r="C229">
-        <v>13.50258140617396</v>
+        <v>12.24693485996294</v>
       </c>
       <c r="D229">
-        <v>12.9435673642744</v>
+        <v>9.976259953037335</v>
       </c>
       <c r="E229">
-        <v>12.18980423698211</v>
+        <v>11.98134668756847</v>
       </c>
       <c r="F229">
-        <v>0</v>
+        <v>7.888631320935088</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -4954,19 +4954,19 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>11.98925155338017</v>
+        <v>9.463121017219718</v>
       </c>
       <c r="C230">
-        <v>13.55350996849874</v>
+        <v>12.25689759216209</v>
       </c>
       <c r="D230">
-        <v>12.9949265772857</v>
+        <v>9.989905317107086</v>
       </c>
       <c r="E230">
-        <v>12.23484424158467</v>
+        <v>12.00753552180312</v>
       </c>
       <c r="F230">
-        <v>0</v>
+        <v>7.890616313438967</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -4974,19 +4974,19 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>12.04461914590252</v>
+        <v>9.474464958570783</v>
       </c>
       <c r="C231">
-        <v>13.60436924346827</v>
+        <v>12.26664568748694</v>
       </c>
       <c r="D231">
-        <v>13.04624682399296</v>
+        <v>10.00326211160072</v>
       </c>
       <c r="E231">
-        <v>12.27979147285718</v>
+        <v>12.03362303945172</v>
       </c>
       <c r="F231">
-        <v>0</v>
+        <v>7.892492711641139</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -4994,19 +4994,19 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>12.09993045439173</v>
+        <v>9.485685021815598</v>
       </c>
       <c r="C232">
-        <v>13.65516112981548</v>
+        <v>12.27618208561143</v>
       </c>
       <c r="D232">
-        <v>13.0975289679916</v>
+        <v>10.01633221337046</v>
       </c>
       <c r="E232">
-        <v>12.32464674157561</v>
+        <v>12.05961098150441</v>
       </c>
       <c r="F232">
-        <v>0</v>
+        <v>7.894262156713861</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5014,19 +5014,19 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>12.15518560223968</v>
+        <v>9.496782860516005</v>
       </c>
       <c r="C233">
-        <v>13.70588751355838</v>
+        <v>12.28550967980387</v>
       </c>
       <c r="D233">
-        <v>13.1487738693564</v>
+        <v>10.02911749513538</v>
       </c>
       <c r="E233">
-        <v>12.36941085444032</v>
+        <v>12.08550106897939</v>
       </c>
       <c r="F233">
-        <v>0</v>
+        <v>7.895926258581761</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5034,19 +5034,19 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>12.21038471264198</v>
+        <v>9.507760104988719</v>
       </c>
       <c r="C234">
-        <v>13.75655026817557</v>
+        <v>12.29463131837172</v>
       </c>
       <c r="D234">
-        <v>13.19998238467757</v>
+        <v>10.0416198252442</v>
       </c>
       <c r="E234">
-        <v>12.41408461409009</v>
+        <v>12.11129500342979</v>
       </c>
       <c r="F234">
-        <v>0</v>
+        <v>7.897486596308774</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5054,19 +5054,19 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>12.26552790859238</v>
+        <v>9.51861836256978</v>
       </c>
       <c r="C235">
-        <v>13.80715125478092</v>
+        <v>12.30354980485205</v>
       </c>
       <c r="D235">
-        <v>13.25115536709687</v>
+        <v>10.05384106744832</v>
       </c>
       <c r="E235">
-        <v>12.45866881911702</v>
+        <v>12.13699446715831</v>
       </c>
       <c r="F235">
-        <v>0</v>
+        <v>7.898944719643191</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5074,19 +5074,19 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>12.32061531287743</v>
+        <v>9.529359217863281</v>
       </c>
       <c r="C236">
-        <v>13.85769232229746</v>
+        <v>12.31226789828603</v>
       </c>
       <c r="D236">
-        <v>13.30229366634354</v>
+        <v>10.065783080682</v>
       </c>
       <c r="E236">
-        <v>12.50316426408226</v>
+        <v>12.16260112341173</v>
       </c>
       <c r="F236">
-        <v>0</v>
+        <v>7.900302148727888</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5094,19 +5094,19 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>12.37564704807138</v>
+        <v>9.539984233337625</v>
       </c>
       <c r="C237">
-        <v>13.9081753076302</v>
+        <v>12.32078831475507</v>
       </c>
       <c r="D237">
-        <v>13.35339812877012</v>
+        <v>10.07744771884827</v>
       </c>
       <c r="E237">
-        <v>12.54757173953259</v>
+        <v>12.18811661688563</v>
       </c>
       <c r="F237">
-        <v>0</v>
+        <v>7.901560374327078</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5114,19 +5114,19 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>12.43062323653127</v>
+        <v>9.550494949428005</v>
       </c>
       <c r="C238">
-        <v>13.95860203583814</v>
+        <v>12.32911372748907</v>
       </c>
       <c r="D238">
-        <v>13.40446959738821</v>
+        <v>10.08883683061508</v>
       </c>
       <c r="E238">
-        <v>12.59189203201758</v>
+        <v>12.21354257375829</v>
       </c>
       <c r="F238">
-        <v>0</v>
+        <v>7.902720859501491</v>
       </c>
     </row>
   </sheetData>
